--- a/pumping/Pumpage_Data_GRL.xlsx
+++ b/pumping/Pumpage_Data_GRL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbabrams\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viord\Desktop\gitHUB\GEOL572-GRL\pumping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6966288-7C62-44A2-88A8-A9B91F37E4B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1ED4BC-EDA9-4672-9C04-BFC8F7613C9B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{453DED0F-880D-4EF0-BE81-F360E1BDD7F0}"/>
+    <workbookView xWindow="396" yWindow="396" windowWidth="18432" windowHeight="9576" xr2:uid="{453DED0F-880D-4EF0-BE81-F360E1BDD7F0}"/>
   </bookViews>
   <sheets>
     <sheet name="GRL" sheetId="2" r:id="rId1"/>
@@ -5869,13 +5869,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584D9A5E-C2ED-41AA-A8BC-E23D70E78031}">
   <dimension ref="A1:AT756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection sqref="A1:AT756"/>
+    <sheetView tabSelected="1" topLeftCell="X322" workbookViewId="0">
+      <selection activeCell="AN326" sqref="AN326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="40" max="40" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>5632</v>
       </c>
@@ -6081,7 +6084,7 @@
       </c>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>6008</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>8964000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>59025</v>
       </c>
@@ -6223,7 +6226,7 @@
       </c>
       <c r="AT4" s="4"/>
     </row>
-    <row r="5" spans="1:46" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>59026</v>
       </c>
@@ -6293,7 +6296,7 @@
       </c>
       <c r="AT5" s="4"/>
     </row>
-    <row r="6" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>59061</v>
       </c>
@@ -6357,7 +6360,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>59062</v>
       </c>
@@ -6421,7 +6424,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
     </row>
-    <row r="8" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>59064</v>
       </c>
@@ -6489,7 +6492,7 @@
       </c>
       <c r="AT8" s="4"/>
     </row>
-    <row r="9" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>59065</v>
       </c>
@@ -6557,7 +6560,7 @@
       </c>
       <c r="AT9" s="4"/>
     </row>
-    <row r="10" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>60598</v>
       </c>
@@ -6627,7 +6630,7 @@
       </c>
       <c r="AT10" s="4"/>
     </row>
-    <row r="11" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>84083</v>
       </c>
@@ -6693,7 +6696,7 @@
       </c>
       <c r="AT11" s="4"/>
     </row>
-    <row r="12" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>84107</v>
       </c>
@@ -6763,7 +6766,7 @@
       </c>
       <c r="AT12" s="4"/>
     </row>
-    <row r="13" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>84163</v>
       </c>
@@ -6831,7 +6834,7 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>84199</v>
       </c>
@@ -6901,7 +6904,7 @@
       </c>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>84348</v>
       </c>
@@ -6971,7 +6974,7 @@
       </c>
       <c r="AT15" s="4"/>
     </row>
-    <row r="16" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>84386</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>84482</v>
       </c>
@@ -7111,7 +7114,7 @@
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
     </row>
-    <row r="18" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>146858</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>28458</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>146888</v>
       </c>
@@ -7249,7 +7252,7 @@
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
     </row>
-    <row r="20" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>147150</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>147193</v>
       </c>
@@ -7393,7 +7396,7 @@
         <v>5472000</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>147204</v>
       </c>
@@ -7461,7 +7464,7 @@
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
     </row>
-    <row r="23" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>147209</v>
       </c>
@@ -7533,7 +7536,7 @@
         <v>21120000</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>147213</v>
       </c>
@@ -7605,7 +7608,7 @@
         <v>28380000</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>147215</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>10968000</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>147226</v>
       </c>
@@ -7749,7 +7752,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>147243</v>
       </c>
@@ -7817,7 +7820,7 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
     </row>
-    <row r="28" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>147278</v>
       </c>
@@ -7883,7 +7886,7 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
     </row>
-    <row r="29" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>222251</v>
       </c>
@@ -7951,7 +7954,7 @@
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
     </row>
-    <row r="30" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>222261</v>
       </c>
@@ -8015,7 +8018,7 @@
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
     </row>
-    <row r="31" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>222262</v>
       </c>
@@ -8083,7 +8086,7 @@
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
     </row>
-    <row r="32" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>227862</v>
       </c>
@@ -8149,7 +8152,7 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
     </row>
-    <row r="33" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>229600</v>
       </c>
@@ -8217,7 +8220,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
     </row>
-    <row r="34" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>229602</v>
       </c>
@@ -8283,7 +8286,7 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
     </row>
-    <row r="35" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>229603</v>
       </c>
@@ -8349,7 +8352,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
     </row>
-    <row r="36" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>229879</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>17928000</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>234758</v>
       </c>
@@ -8485,7 +8488,7 @@
       </c>
       <c r="AT37" s="4"/>
     </row>
-    <row r="38" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>235575</v>
       </c>
@@ -8555,7 +8558,7 @@
       </c>
       <c r="AT38" s="4"/>
     </row>
-    <row r="39" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>239836</v>
       </c>
@@ -8619,7 +8622,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
     </row>
-    <row r="40" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>247526</v>
       </c>
@@ -8683,7 +8686,7 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
     </row>
-    <row r="41" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>247550</v>
       </c>
@@ -8747,7 +8750,7 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
     </row>
-    <row r="42" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>247584</v>
       </c>
@@ -8821,7 +8824,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="4"/>
     </row>
-    <row r="43" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>252317</v>
       </c>
@@ -8891,7 +8894,7 @@
       </c>
       <c r="AT43" s="4"/>
     </row>
-    <row r="44" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>252907</v>
       </c>
@@ -8957,7 +8960,7 @@
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
     </row>
-    <row r="45" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>253526</v>
       </c>
@@ -9031,7 +9034,7 @@
         <v>312000</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>285124</v>
       </c>
@@ -9099,7 +9102,7 @@
         <v>20808000</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>285751</v>
       </c>
@@ -9163,7 +9166,7 @@
       </c>
       <c r="AT47" s="4"/>
     </row>
-    <row r="48" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>288069</v>
       </c>
@@ -9233,7 +9236,7 @@
       </c>
       <c r="AT48" s="4"/>
     </row>
-    <row r="49" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>288661</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>17738600</v>
       </c>
     </row>
-    <row r="50" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>288668</v>
       </c>
@@ -9373,7 +9376,7 @@
       <c r="AS50" s="4"/>
       <c r="AT50" s="4"/>
     </row>
-    <row r="51" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>288669</v>
       </c>
@@ -9443,7 +9446,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>288670</v>
       </c>
@@ -9511,7 +9514,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>288671</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>295918</v>
       </c>
@@ -9651,7 +9654,7 @@
       <c r="AS54" s="4"/>
       <c r="AT54" s="4"/>
     </row>
-    <row r="55" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>295922</v>
       </c>
@@ -9717,7 +9720,7 @@
       <c r="AS55" s="4"/>
       <c r="AT55" s="4"/>
     </row>
-    <row r="56" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>297210</v>
       </c>
@@ -9793,7 +9796,7 @@
       <c r="AS56" s="4"/>
       <c r="AT56" s="4"/>
     </row>
-    <row r="57" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>297857</v>
       </c>
@@ -9863,7 +9866,7 @@
       </c>
       <c r="AT57" s="4"/>
     </row>
-    <row r="58" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>303067</v>
       </c>
@@ -9935,7 +9938,7 @@
         <v>7726200</v>
       </c>
     </row>
-    <row r="59" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>304691</v>
       </c>
@@ -10005,7 +10008,7 @@
       </c>
       <c r="AT59" s="4"/>
     </row>
-    <row r="60" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>306317</v>
       </c>
@@ -10075,7 +10078,7 @@
       </c>
       <c r="AT60" s="4"/>
     </row>
-    <row r="61" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>309883</v>
       </c>
@@ -10147,7 +10150,7 @@
       <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
     </row>
-    <row r="62" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>310062</v>
       </c>
@@ -10217,7 +10220,7 @@
       </c>
       <c r="AT62" s="4"/>
     </row>
-    <row r="63" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>310183</v>
       </c>
@@ -10281,7 +10284,7 @@
       <c r="AS63" s="4"/>
       <c r="AT63" s="4"/>
     </row>
-    <row r="64" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>318249</v>
       </c>
@@ -10349,7 +10352,7 @@
       <c r="AS64" s="4"/>
       <c r="AT64" s="4"/>
     </row>
-    <row r="65" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>318283</v>
       </c>
@@ -10417,7 +10420,7 @@
       <c r="AS65" s="4"/>
       <c r="AT65" s="4"/>
     </row>
-    <row r="66" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>319457</v>
       </c>
@@ -10497,7 +10500,7 @@
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
     </row>
-    <row r="67" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>319500</v>
       </c>
@@ -10561,7 +10564,7 @@
       <c r="AS67" s="4"/>
       <c r="AT67" s="4"/>
     </row>
-    <row r="68" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>321120</v>
       </c>
@@ -10625,7 +10628,7 @@
       </c>
       <c r="AT68" s="4"/>
     </row>
-    <row r="69" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>321122</v>
       </c>
@@ -10689,7 +10692,7 @@
       </c>
       <c r="AT69" s="4"/>
     </row>
-    <row r="70" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>321125</v>
       </c>
@@ -10759,7 +10762,7 @@
       <c r="AS70" s="4"/>
       <c r="AT70" s="4"/>
     </row>
-    <row r="71" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>321960</v>
       </c>
@@ -10827,7 +10830,7 @@
       </c>
       <c r="AT71" s="4"/>
     </row>
-    <row r="72" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>323344</v>
       </c>
@@ -10891,7 +10894,7 @@
       </c>
       <c r="AT72" s="4"/>
     </row>
-    <row r="73" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>324206</v>
       </c>
@@ -10963,7 +10966,7 @@
         <v>11232000</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="135" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>324410</v>
       </c>
@@ -11027,7 +11030,7 @@
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
     </row>
-    <row r="75" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>325922</v>
       </c>
@@ -11101,7 +11104,7 @@
         <v>308000</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>329569</v>
       </c>
@@ -11165,7 +11168,7 @@
       <c r="AS76" s="4"/>
       <c r="AT76" s="4"/>
     </row>
-    <row r="77" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>330113</v>
       </c>
@@ -11239,7 +11242,7 @@
       </c>
       <c r="AT77" s="4"/>
     </row>
-    <row r="78" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>331784</v>
       </c>
@@ -11303,7 +11306,7 @@
       </c>
       <c r="AT78" s="4"/>
     </row>
-    <row r="79" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>332815</v>
       </c>
@@ -11367,7 +11370,7 @@
       </c>
       <c r="AT79" s="4"/>
     </row>
-    <row r="80" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>339357</v>
       </c>
@@ -11435,7 +11438,7 @@
       <c r="AS80" s="4"/>
       <c r="AT80" s="4"/>
     </row>
-    <row r="81" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>340289</v>
       </c>
@@ -11505,7 +11508,7 @@
       </c>
       <c r="AT81" s="4"/>
     </row>
-    <row r="82" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>342028</v>
       </c>
@@ -11569,7 +11572,7 @@
       <c r="AS82" s="4"/>
       <c r="AT82" s="4"/>
     </row>
-    <row r="83" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>343694</v>
       </c>
@@ -11639,7 +11642,7 @@
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
     </row>
-    <row r="84" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>343940</v>
       </c>
@@ -11707,7 +11710,7 @@
       <c r="AS84" s="4"/>
       <c r="AT84" s="4"/>
     </row>
-    <row r="85" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>343941</v>
       </c>
@@ -11775,7 +11778,7 @@
       <c r="AS85" s="4"/>
       <c r="AT85" s="4"/>
     </row>
-    <row r="86" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>374861</v>
       </c>
@@ -11841,7 +11844,7 @@
       <c r="AS86" s="4"/>
       <c r="AT86" s="4"/>
     </row>
-    <row r="87" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>374862</v>
       </c>
@@ -11911,7 +11914,7 @@
       </c>
       <c r="AT87" s="4"/>
     </row>
-    <row r="88" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>374863</v>
       </c>
@@ -11983,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>374867</v>
       </c>
@@ -12049,7 +12052,7 @@
       <c r="AS89" s="4"/>
       <c r="AT89" s="4"/>
     </row>
-    <row r="90" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>375912</v>
       </c>
@@ -12121,7 +12124,7 @@
         <v>9660000</v>
       </c>
     </row>
-    <row r="91" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>375913</v>
       </c>
@@ -12193,7 +12196,7 @@
         <v>16452000</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>380039</v>
       </c>
@@ -12265,7 +12268,7 @@
       </c>
       <c r="AT92" s="4"/>
     </row>
-    <row r="93" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>380599</v>
       </c>
@@ -12331,7 +12334,7 @@
       <c r="AS93" s="4"/>
       <c r="AT93" s="4"/>
     </row>
-    <row r="94" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>380827</v>
       </c>
@@ -12395,7 +12398,7 @@
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
     </row>
-    <row r="95" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>380828</v>
       </c>
@@ -12459,7 +12462,7 @@
       <c r="AS95" s="4"/>
       <c r="AT95" s="4"/>
     </row>
-    <row r="96" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>380829</v>
       </c>
@@ -12523,7 +12526,7 @@
       <c r="AS96" s="4"/>
       <c r="AT96" s="4"/>
     </row>
-    <row r="97" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>382997</v>
       </c>
@@ -12591,7 +12594,7 @@
       <c r="AS97" s="4"/>
       <c r="AT97" s="4"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>400040</v>
       </c>
@@ -12689,7 +12692,7 @@
       </c>
       <c r="AT98" s="4"/>
     </row>
-    <row r="99" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>400041</v>
       </c>
@@ -12789,7 +12792,7 @@
       </c>
       <c r="AT99" s="4"/>
     </row>
-    <row r="100" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>400042</v>
       </c>
@@ -12877,7 +12880,7 @@
       <c r="AS100" s="4"/>
       <c r="AT100" s="4"/>
     </row>
-    <row r="101" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>400089</v>
       </c>
@@ -12959,7 +12962,7 @@
       <c r="AS101" s="4"/>
       <c r="AT101" s="4"/>
     </row>
-    <row r="102" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>400090</v>
       </c>
@@ -13027,7 +13030,7 @@
       <c r="AS102" s="4"/>
       <c r="AT102" s="4"/>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>400091</v>
       </c>
@@ -13117,7 +13120,7 @@
       </c>
       <c r="AT103" s="4"/>
     </row>
-    <row r="104" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>400574</v>
       </c>
@@ -13193,7 +13196,7 @@
       <c r="AS104" s="4"/>
       <c r="AT104" s="4"/>
     </row>
-    <row r="105" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>400575</v>
       </c>
@@ -13269,7 +13272,7 @@
       <c r="AS105" s="4"/>
       <c r="AT105" s="4"/>
     </row>
-    <row r="106" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>400579</v>
       </c>
@@ -13393,7 +13396,7 @@
       </c>
       <c r="AT106" s="4"/>
     </row>
-    <row r="107" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>400581</v>
       </c>
@@ -13471,7 +13474,7 @@
       <c r="AS107" s="4"/>
       <c r="AT107" s="4"/>
     </row>
-    <row r="108" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>400584</v>
       </c>
@@ -13603,7 +13606,7 @@
       </c>
       <c r="AT108" s="4"/>
     </row>
-    <row r="109" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>400585</v>
       </c>
@@ -13737,7 +13740,7 @@
       </c>
       <c r="AT109" s="4"/>
     </row>
-    <row r="110" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>400586</v>
       </c>
@@ -13859,7 +13862,7 @@
       </c>
       <c r="AT110" s="4"/>
     </row>
-    <row r="111" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>400587</v>
       </c>
@@ -13973,7 +13976,7 @@
       </c>
       <c r="AT111" s="4"/>
     </row>
-    <row r="112" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>400589</v>
       </c>
@@ -14067,7 +14070,7 @@
       <c r="AS112" s="4"/>
       <c r="AT112" s="4"/>
     </row>
-    <row r="113" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>400590</v>
       </c>
@@ -14157,7 +14160,7 @@
       <c r="AS113" s="4"/>
       <c r="AT113" s="4"/>
     </row>
-    <row r="114" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>400595</v>
       </c>
@@ -14281,7 +14284,7 @@
       <c r="AS114" s="4"/>
       <c r="AT114" s="4"/>
     </row>
-    <row r="115" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>400596</v>
       </c>
@@ -14351,7 +14354,7 @@
       <c r="AS115" s="4"/>
       <c r="AT115" s="4"/>
     </row>
-    <row r="116" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>400597</v>
       </c>
@@ -14423,7 +14426,7 @@
       <c r="AS116" s="4"/>
       <c r="AT116" s="4"/>
     </row>
-    <row r="117" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>400598</v>
       </c>
@@ -14497,7 +14500,7 @@
       <c r="AS117" s="4"/>
       <c r="AT117" s="4"/>
     </row>
-    <row r="118" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>400599</v>
       </c>
@@ -14569,7 +14572,7 @@
       <c r="AS118" s="4"/>
       <c r="AT118" s="4"/>
     </row>
-    <row r="119" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>400600</v>
       </c>
@@ -14643,7 +14646,7 @@
       <c r="AS119" s="4"/>
       <c r="AT119" s="4"/>
     </row>
-    <row r="120" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>400601</v>
       </c>
@@ -14767,7 +14770,7 @@
       <c r="AS120" s="4"/>
       <c r="AT120" s="4"/>
     </row>
-    <row r="121" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>400603</v>
       </c>
@@ -14835,7 +14838,7 @@
       <c r="AS121" s="4"/>
       <c r="AT121" s="4"/>
     </row>
-    <row r="122" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>400604</v>
       </c>
@@ -14953,7 +14956,7 @@
       <c r="AS122" s="4"/>
       <c r="AT122" s="4"/>
     </row>
-    <row r="123" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>400605</v>
       </c>
@@ -15021,7 +15024,7 @@
       <c r="AS123" s="4"/>
       <c r="AT123" s="4"/>
     </row>
-    <row r="124" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>400606</v>
       </c>
@@ -15141,7 +15144,7 @@
       <c r="AS124" s="4"/>
       <c r="AT124" s="4"/>
     </row>
-    <row r="125" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>400607</v>
       </c>
@@ -15247,7 +15250,7 @@
       <c r="AS125" s="4"/>
       <c r="AT125" s="4"/>
     </row>
-    <row r="126" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>400608</v>
       </c>
@@ -15313,7 +15316,7 @@
       <c r="AS126" s="4"/>
       <c r="AT126" s="4"/>
     </row>
-    <row r="127" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>400609</v>
       </c>
@@ -15427,7 +15430,7 @@
       <c r="AS127" s="4"/>
       <c r="AT127" s="4"/>
     </row>
-    <row r="128" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>400745</v>
       </c>
@@ -15501,7 +15504,7 @@
       <c r="AS128" s="4"/>
       <c r="AT128" s="4"/>
     </row>
-    <row r="129" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>401190</v>
       </c>
@@ -15607,7 +15610,7 @@
       <c r="AS129" s="4"/>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>401301</v>
       </c>
@@ -15683,7 +15686,7 @@
       <c r="AS130" s="4"/>
       <c r="AT130" s="4"/>
     </row>
-    <row r="131" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>401412</v>
       </c>
@@ -15759,7 +15762,7 @@
       <c r="AS131" s="4"/>
       <c r="AT131" s="4"/>
     </row>
-    <row r="132" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>401522</v>
       </c>
@@ -15835,7 +15838,7 @@
       <c r="AS132" s="4"/>
       <c r="AT132" s="4"/>
     </row>
-    <row r="133" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>401633</v>
       </c>
@@ -15897,7 +15900,7 @@
       <c r="AS133" s="4"/>
       <c r="AT133" s="4"/>
     </row>
-    <row r="134" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>401744</v>
       </c>
@@ -15993,7 +15996,7 @@
       <c r="AS134" s="4"/>
       <c r="AT134" s="4"/>
     </row>
-    <row r="135" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>401750</v>
       </c>
@@ -16071,7 +16074,7 @@
       <c r="AS135" s="4"/>
       <c r="AT135" s="4"/>
     </row>
-    <row r="136" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>401751</v>
       </c>
@@ -16187,7 +16190,7 @@
       <c r="AS136" s="4"/>
       <c r="AT136" s="4"/>
     </row>
-    <row r="137" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>401752</v>
       </c>
@@ -16279,7 +16282,7 @@
       <c r="AS137" s="4"/>
       <c r="AT137" s="4"/>
     </row>
-    <row r="138" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>401753</v>
       </c>
@@ -16389,7 +16392,7 @@
       <c r="AS138" s="4"/>
       <c r="AT138" s="4"/>
     </row>
-    <row r="139" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>401754</v>
       </c>
@@ -16469,7 +16472,7 @@
       <c r="AS139" s="4"/>
       <c r="AT139" s="4"/>
     </row>
-    <row r="140" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>401755</v>
       </c>
@@ -16551,7 +16554,7 @@
       <c r="AS140" s="4"/>
       <c r="AT140" s="4"/>
     </row>
-    <row r="141" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>401759</v>
       </c>
@@ -16631,7 +16634,7 @@
       <c r="AS141" s="4"/>
       <c r="AT141" s="4"/>
     </row>
-    <row r="142" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>401760</v>
       </c>
@@ -16721,7 +16724,7 @@
       <c r="AS142" s="4"/>
       <c r="AT142" s="4"/>
     </row>
-    <row r="143" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>401761</v>
       </c>
@@ -16807,7 +16810,7 @@
       <c r="AS143" s="4"/>
       <c r="AT143" s="4"/>
     </row>
-    <row r="144" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>401762</v>
       </c>
@@ -16875,7 +16878,7 @@
       <c r="AS144" s="4"/>
       <c r="AT144" s="4"/>
     </row>
-    <row r="145" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>401765</v>
       </c>
@@ -16975,7 +16978,7 @@
       <c r="AS145" s="4"/>
       <c r="AT145" s="4"/>
     </row>
-    <row r="146" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>401766</v>
       </c>
@@ -17037,7 +17040,7 @@
       <c r="AS146" s="4"/>
       <c r="AT146" s="4"/>
     </row>
-    <row r="147" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>401768</v>
       </c>
@@ -17161,7 +17164,7 @@
       <c r="AS147" s="4"/>
       <c r="AT147" s="4"/>
     </row>
-    <row r="148" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>401771</v>
       </c>
@@ -17223,7 +17226,7 @@
       <c r="AS148" s="4"/>
       <c r="AT148" s="4"/>
     </row>
-    <row r="149" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>401774</v>
       </c>
@@ -17295,7 +17298,7 @@
       <c r="AS149" s="4"/>
       <c r="AT149" s="4"/>
     </row>
-    <row r="150" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>401775</v>
       </c>
@@ -17369,7 +17372,7 @@
       <c r="AS150" s="4"/>
       <c r="AT150" s="4"/>
     </row>
-    <row r="151" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>401782</v>
       </c>
@@ -17441,7 +17444,7 @@
       <c r="AS151" s="4"/>
       <c r="AT151" s="4"/>
     </row>
-    <row r="152" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>401783</v>
       </c>
@@ -17513,7 +17516,7 @@
       <c r="AS152" s="4"/>
       <c r="AT152" s="4"/>
     </row>
-    <row r="153" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>401785</v>
       </c>
@@ -17585,7 +17588,7 @@
       <c r="AS153" s="4"/>
       <c r="AT153" s="4"/>
     </row>
-    <row r="154" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>401855</v>
       </c>
@@ -17711,7 +17714,7 @@
       </c>
       <c r="AT154" s="4"/>
     </row>
-    <row r="155" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>401966</v>
       </c>
@@ -17841,7 +17844,7 @@
       </c>
       <c r="AT155" s="4"/>
     </row>
-    <row r="156" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>402076</v>
       </c>
@@ -17917,7 +17920,7 @@
       <c r="AS156" s="4"/>
       <c r="AT156" s="4"/>
     </row>
-    <row r="157" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>402187</v>
       </c>
@@ -17993,7 +17996,7 @@
       <c r="AS157" s="4"/>
       <c r="AT157" s="4"/>
     </row>
-    <row r="158" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>402298</v>
       </c>
@@ -18091,7 +18094,7 @@
       </c>
       <c r="AT158" s="4"/>
     </row>
-    <row r="159" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>402410</v>
       </c>
@@ -18167,7 +18170,7 @@
       <c r="AS159" s="4"/>
       <c r="AT159" s="4"/>
     </row>
-    <row r="160" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>402441</v>
       </c>
@@ -18273,7 +18276,7 @@
       <c r="AS160" s="4"/>
       <c r="AT160" s="4"/>
     </row>
-    <row r="161" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>402442</v>
       </c>
@@ -18373,7 +18376,7 @@
       <c r="AS161" s="4"/>
       <c r="AT161" s="4"/>
     </row>
-    <row r="162" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>402443</v>
       </c>
@@ -18469,7 +18472,7 @@
       <c r="AS162" s="4"/>
       <c r="AT162" s="4"/>
     </row>
-    <row r="163" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>402445</v>
       </c>
@@ -18531,7 +18534,7 @@
       <c r="AS163" s="4"/>
       <c r="AT163" s="4"/>
     </row>
-    <row r="164" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>402446</v>
       </c>
@@ -18593,7 +18596,7 @@
       <c r="AS164" s="4"/>
       <c r="AT164" s="4"/>
     </row>
-    <row r="165" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>402447</v>
       </c>
@@ -18687,7 +18690,7 @@
       <c r="AS165" s="4"/>
       <c r="AT165" s="4"/>
     </row>
-    <row r="166" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>402448</v>
       </c>
@@ -18809,7 +18812,7 @@
       <c r="AS166" s="4"/>
       <c r="AT166" s="4"/>
     </row>
-    <row r="167" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>402449</v>
       </c>
@@ -18931,7 +18934,7 @@
       <c r="AS167" s="4"/>
       <c r="AT167" s="4"/>
     </row>
-    <row r="168" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>402450</v>
       </c>
@@ -19005,7 +19008,7 @@
       <c r="AS168" s="4"/>
       <c r="AT168" s="4"/>
     </row>
-    <row r="169" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>402451</v>
       </c>
@@ -19079,7 +19082,7 @@
       <c r="AS169" s="4"/>
       <c r="AT169" s="4"/>
     </row>
-    <row r="170" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>402452</v>
       </c>
@@ -19165,7 +19168,7 @@
       <c r="AS170" s="4"/>
       <c r="AT170" s="4"/>
     </row>
-    <row r="171" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>402453</v>
       </c>
@@ -19251,7 +19254,7 @@
       <c r="AS171" s="4"/>
       <c r="AT171" s="4"/>
     </row>
-    <row r="172" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>402456</v>
       </c>
@@ -19325,7 +19328,7 @@
       <c r="AS172" s="4"/>
       <c r="AT172" s="4"/>
     </row>
-    <row r="173" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>402457</v>
       </c>
@@ -19399,7 +19402,7 @@
       <c r="AS173" s="4"/>
       <c r="AT173" s="4"/>
     </row>
-    <row r="174" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>402458</v>
       </c>
@@ -19473,7 +19476,7 @@
       <c r="AS174" s="4"/>
       <c r="AT174" s="4"/>
     </row>
-    <row r="175" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>402459</v>
       </c>
@@ -19547,7 +19550,7 @@
       <c r="AS175" s="4"/>
       <c r="AT175" s="4"/>
     </row>
-    <row r="176" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>402460</v>
       </c>
@@ -19677,7 +19680,7 @@
       <c r="AS176" s="4"/>
       <c r="AT176" s="4"/>
     </row>
-    <row r="177" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>402461</v>
       </c>
@@ -19769,7 +19772,7 @@
       <c r="AS177" s="4"/>
       <c r="AT177" s="4"/>
     </row>
-    <row r="178" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>402463</v>
       </c>
@@ -19843,7 +19846,7 @@
       <c r="AS178" s="4"/>
       <c r="AT178" s="4"/>
     </row>
-    <row r="179" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>402464</v>
       </c>
@@ -19917,7 +19920,7 @@
       <c r="AS179" s="4"/>
       <c r="AT179" s="4"/>
     </row>
-    <row r="180" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>402467</v>
       </c>
@@ -19985,7 +19988,7 @@
       <c r="AS180" s="4"/>
       <c r="AT180" s="4"/>
     </row>
-    <row r="181" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>402468</v>
       </c>
@@ -20079,7 +20082,7 @@
       <c r="AS181" s="4"/>
       <c r="AT181" s="4"/>
     </row>
-    <row r="182" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>402469</v>
       </c>
@@ -20173,7 +20176,7 @@
       <c r="AS182" s="4"/>
       <c r="AT182" s="4"/>
     </row>
-    <row r="183" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>402470</v>
       </c>
@@ -20247,7 +20250,7 @@
       <c r="AS183" s="4"/>
       <c r="AT183" s="4"/>
     </row>
-    <row r="184" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>402471</v>
       </c>
@@ -20329,7 +20332,7 @@
       <c r="AS184" s="4"/>
       <c r="AT184" s="4"/>
     </row>
-    <row r="185" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>402472</v>
       </c>
@@ -20413,7 +20416,7 @@
       <c r="AS185" s="4"/>
       <c r="AT185" s="4"/>
     </row>
-    <row r="186" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>402473</v>
       </c>
@@ -20515,7 +20518,7 @@
       <c r="AS186" s="4"/>
       <c r="AT186" s="4"/>
     </row>
-    <row r="187" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>402474</v>
       </c>
@@ -20617,7 +20620,7 @@
       <c r="AS187" s="4"/>
       <c r="AT187" s="4"/>
     </row>
-    <row r="188" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>402475</v>
       </c>
@@ -20723,7 +20726,7 @@
       </c>
       <c r="AT188" s="4"/>
     </row>
-    <row r="189" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>402476</v>
       </c>
@@ -20827,7 +20830,7 @@
       </c>
       <c r="AT189" s="4"/>
     </row>
-    <row r="190" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>402478</v>
       </c>
@@ -20929,7 +20932,7 @@
       </c>
       <c r="AT190" s="4"/>
     </row>
-    <row r="191" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>402479</v>
       </c>
@@ -21033,7 +21036,7 @@
       </c>
       <c r="AT191" s="4"/>
     </row>
-    <row r="192" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>402480</v>
       </c>
@@ -21109,7 +21112,7 @@
       <c r="AS192" s="4"/>
       <c r="AT192" s="4"/>
     </row>
-    <row r="193" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>402481</v>
       </c>
@@ -21179,7 +21182,7 @@
       <c r="AS193" s="4"/>
       <c r="AT193" s="4"/>
     </row>
-    <row r="194" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>402521</v>
       </c>
@@ -21239,7 +21242,7 @@
       <c r="AS194" s="4"/>
       <c r="AT194" s="4"/>
     </row>
-    <row r="195" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>402631</v>
       </c>
@@ -21299,7 +21302,7 @@
       <c r="AS195" s="4"/>
       <c r="AT195" s="4"/>
     </row>
-    <row r="196" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>402742</v>
       </c>
@@ -21383,7 +21386,7 @@
       <c r="AS196" s="4"/>
       <c r="AT196" s="4"/>
     </row>
-    <row r="197" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>402853</v>
       </c>
@@ -21463,7 +21466,7 @@
       <c r="AS197" s="4"/>
       <c r="AT197" s="4"/>
     </row>
-    <row r="198" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>402964</v>
       </c>
@@ -21549,7 +21552,7 @@
       <c r="AS198" s="4"/>
       <c r="AT198" s="4"/>
     </row>
-    <row r="199" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>403075</v>
       </c>
@@ -21627,7 +21630,7 @@
       <c r="AS199" s="4"/>
       <c r="AT199" s="4"/>
     </row>
-    <row r="200" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>403186</v>
       </c>
@@ -21711,7 +21714,7 @@
       <c r="AS200" s="4"/>
       <c r="AT200" s="4"/>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>403296</v>
       </c>
@@ -21831,7 +21834,7 @@
       <c r="AS201" s="4"/>
       <c r="AT201" s="4"/>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>403407</v>
       </c>
@@ -21951,7 +21954,7 @@
       <c r="AS202" s="4"/>
       <c r="AT202" s="4"/>
     </row>
-    <row r="203" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>403519</v>
       </c>
@@ -22031,7 +22034,7 @@
       <c r="AS203" s="4"/>
       <c r="AT203" s="4"/>
     </row>
-    <row r="204" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>403629</v>
       </c>
@@ -22109,7 +22112,7 @@
       <c r="AS204" s="4"/>
       <c r="AT204" s="4"/>
     </row>
-    <row r="205" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>403740</v>
       </c>
@@ -22239,7 +22242,7 @@
       </c>
       <c r="AT205" s="4"/>
     </row>
-    <row r="206" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>403851</v>
       </c>
@@ -22305,7 +22308,7 @@
       <c r="AS206" s="4"/>
       <c r="AT206" s="4"/>
     </row>
-    <row r="207" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>403909</v>
       </c>
@@ -22397,7 +22400,7 @@
       <c r="AS207" s="4"/>
       <c r="AT207" s="4"/>
     </row>
-    <row r="208" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>403910</v>
       </c>
@@ -22473,7 +22476,7 @@
       <c r="AS208" s="4"/>
       <c r="AT208" s="4"/>
     </row>
-    <row r="209" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>403911</v>
       </c>
@@ -22549,7 +22552,7 @@
       <c r="AS209" s="4"/>
       <c r="AT209" s="4"/>
     </row>
-    <row r="210" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>403912</v>
       </c>
@@ -22627,7 +22630,7 @@
       <c r="AS210" s="4"/>
       <c r="AT210" s="4"/>
     </row>
-    <row r="211" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>403913</v>
       </c>
@@ -22727,7 +22730,7 @@
       <c r="AS211" s="4"/>
       <c r="AT211" s="4"/>
     </row>
-    <row r="212" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>403914</v>
       </c>
@@ -22853,7 +22856,7 @@
       <c r="AS212" s="4"/>
       <c r="AT212" s="4"/>
     </row>
-    <row r="213" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>403915</v>
       </c>
@@ -22935,7 +22938,7 @@
       <c r="AS213" s="4"/>
       <c r="AT213" s="4"/>
     </row>
-    <row r="214" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>403919</v>
       </c>
@@ -22999,7 +23002,7 @@
       <c r="AS214" s="4"/>
       <c r="AT214" s="4"/>
     </row>
-    <row r="215" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>403920</v>
       </c>
@@ -23085,7 +23088,7 @@
       <c r="AS215" s="4"/>
       <c r="AT215" s="4"/>
     </row>
-    <row r="216" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>403921</v>
       </c>
@@ -23167,7 +23170,7 @@
       <c r="AS216" s="4"/>
       <c r="AT216" s="4"/>
     </row>
-    <row r="217" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>403924</v>
       </c>
@@ -23265,7 +23268,7 @@
       <c r="AS217" s="4"/>
       <c r="AT217" s="4"/>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>403925</v>
       </c>
@@ -23339,7 +23342,7 @@
       <c r="AS218" s="4"/>
       <c r="AT218" s="4"/>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>403926</v>
       </c>
@@ -23413,7 +23416,7 @@
       <c r="AS219" s="4"/>
       <c r="AT219" s="4"/>
     </row>
-    <row r="220" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>403928</v>
       </c>
@@ -23521,7 +23524,7 @@
       <c r="AS220" s="4"/>
       <c r="AT220" s="4"/>
     </row>
-    <row r="221" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>403930</v>
       </c>
@@ -23629,7 +23632,7 @@
       <c r="AS221" s="4"/>
       <c r="AT221" s="4"/>
     </row>
-    <row r="222" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>403931</v>
       </c>
@@ -23721,7 +23724,7 @@
       <c r="AS222" s="4"/>
       <c r="AT222" s="4"/>
     </row>
-    <row r="223" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>403932</v>
       </c>
@@ -23813,7 +23816,7 @@
       <c r="AS223" s="4"/>
       <c r="AT223" s="4"/>
     </row>
-    <row r="224" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>403933</v>
       </c>
@@ -23885,7 +23888,7 @@
       <c r="AS224" s="4"/>
       <c r="AT224" s="4"/>
     </row>
-    <row r="225" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>403934</v>
       </c>
@@ -23959,7 +23962,7 @@
       <c r="AS225" s="4"/>
       <c r="AT225" s="4"/>
     </row>
-    <row r="226" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>403935</v>
       </c>
@@ -24055,7 +24058,7 @@
       <c r="AS226" s="4"/>
       <c r="AT226" s="4"/>
     </row>
-    <row r="227" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>403937</v>
       </c>
@@ -24167,7 +24170,7 @@
       <c r="AS227" s="4"/>
       <c r="AT227" s="4"/>
     </row>
-    <row r="228" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>403938</v>
       </c>
@@ -24279,7 +24282,7 @@
       <c r="AS228" s="4"/>
       <c r="AT228" s="4"/>
     </row>
-    <row r="229" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>403939</v>
       </c>
@@ -24357,7 +24360,7 @@
       <c r="AS229" s="4"/>
       <c r="AT229" s="4"/>
     </row>
-    <row r="230" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>403941</v>
       </c>
@@ -24457,7 +24460,7 @@
       <c r="AS230" s="4"/>
       <c r="AT230" s="4"/>
     </row>
-    <row r="231" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>403943</v>
       </c>
@@ -24571,7 +24574,7 @@
       <c r="AS231" s="4"/>
       <c r="AT231" s="4"/>
     </row>
-    <row r="232" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>403944</v>
       </c>
@@ -24683,7 +24686,7 @@
       <c r="AS232" s="4"/>
       <c r="AT232" s="4"/>
     </row>
-    <row r="233" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>403945</v>
       </c>
@@ -24785,7 +24788,7 @@
       <c r="AS233" s="4"/>
       <c r="AT233" s="4"/>
     </row>
-    <row r="234" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>403946</v>
       </c>
@@ -24887,7 +24890,7 @@
       <c r="AS234" s="4"/>
       <c r="AT234" s="4"/>
     </row>
-    <row r="235" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>403947</v>
       </c>
@@ -24975,7 +24978,7 @@
       <c r="AS235" s="4"/>
       <c r="AT235" s="4"/>
     </row>
-    <row r="236" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>403948</v>
       </c>
@@ -25053,7 +25056,7 @@
       <c r="AS236" s="4"/>
       <c r="AT236" s="4"/>
     </row>
-    <row r="237" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>403949</v>
       </c>
@@ -25131,7 +25134,7 @@
       <c r="AS237" s="4"/>
       <c r="AT237" s="4"/>
     </row>
-    <row r="238" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>403950</v>
       </c>
@@ -25209,7 +25212,7 @@
       <c r="AS238" s="4"/>
       <c r="AT238" s="4"/>
     </row>
-    <row r="239" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>403952</v>
       </c>
@@ -25289,7 +25292,7 @@
       <c r="AS239" s="4"/>
       <c r="AT239" s="4"/>
     </row>
-    <row r="240" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>403953</v>
       </c>
@@ -25379,7 +25382,7 @@
       <c r="AS240" s="4"/>
       <c r="AT240" s="4"/>
     </row>
-    <row r="241" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>403954</v>
       </c>
@@ -25461,7 +25464,7 @@
       <c r="AS241" s="4"/>
       <c r="AT241" s="4"/>
     </row>
-    <row r="242" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>403955</v>
       </c>
@@ -25557,7 +25560,7 @@
       <c r="AS242" s="4"/>
       <c r="AT242" s="4"/>
     </row>
-    <row r="243" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>403956</v>
       </c>
@@ -25645,7 +25648,7 @@
       <c r="AS243" s="4"/>
       <c r="AT243" s="4"/>
     </row>
-    <row r="244" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>403957</v>
       </c>
@@ -25723,7 +25726,7 @@
       <c r="AS244" s="4"/>
       <c r="AT244" s="4"/>
     </row>
-    <row r="245" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>403958</v>
       </c>
@@ -25803,7 +25806,7 @@
       <c r="AS245" s="4"/>
       <c r="AT245" s="4"/>
     </row>
-    <row r="246" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>403959</v>
       </c>
@@ -25889,7 +25892,7 @@
       <c r="AS246" s="4"/>
       <c r="AT246" s="4"/>
     </row>
-    <row r="247" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>403960</v>
       </c>
@@ -25981,7 +25984,7 @@
       <c r="AS247" s="4"/>
       <c r="AT247" s="4"/>
     </row>
-    <row r="248" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>403962</v>
       </c>
@@ -26045,7 +26048,7 @@
       <c r="AS248" s="4"/>
       <c r="AT248" s="4"/>
     </row>
-    <row r="249" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>403964</v>
       </c>
@@ -26147,7 +26150,7 @@
       </c>
       <c r="AT249" s="4"/>
     </row>
-    <row r="250" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>403965</v>
       </c>
@@ -26281,7 +26284,7 @@
       </c>
       <c r="AT250" s="4"/>
     </row>
-    <row r="251" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>403966</v>
       </c>
@@ -26417,7 +26420,7 @@
       </c>
       <c r="AT251" s="4"/>
     </row>
-    <row r="252" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>403967</v>
       </c>
@@ -26501,7 +26504,7 @@
       <c r="AS252" s="4"/>
       <c r="AT252" s="4"/>
     </row>
-    <row r="253" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>403968</v>
       </c>
@@ -26599,7 +26602,7 @@
       <c r="AS253" s="4"/>
       <c r="AT253" s="4"/>
     </row>
-    <row r="254" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>403969</v>
       </c>
@@ -26677,7 +26680,7 @@
       <c r="AS254" s="4"/>
       <c r="AT254" s="4"/>
     </row>
-    <row r="255" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>403970</v>
       </c>
@@ -26753,7 +26756,7 @@
       <c r="AS255" s="4"/>
       <c r="AT255" s="4"/>
     </row>
-    <row r="256" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>403971</v>
       </c>
@@ -26841,7 +26844,7 @@
       <c r="AS256" s="4"/>
       <c r="AT256" s="4"/>
     </row>
-    <row r="257" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>403972</v>
       </c>
@@ -26963,7 +26966,7 @@
       <c r="AS257" s="4"/>
       <c r="AT257" s="4"/>
     </row>
-    <row r="258" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>403973</v>
       </c>
@@ -27045,7 +27048,7 @@
       <c r="AS258" s="4"/>
       <c r="AT258" s="4"/>
     </row>
-    <row r="259" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>403975</v>
       </c>
@@ -27119,7 +27122,7 @@
       <c r="AS259" s="4"/>
       <c r="AT259" s="4"/>
     </row>
-    <row r="260" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>403977</v>
       </c>
@@ -27189,7 +27192,7 @@
       <c r="AS260" s="4"/>
       <c r="AT260" s="4"/>
     </row>
-    <row r="261" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>403978</v>
       </c>
@@ -27263,7 +27266,7 @@
       <c r="AS261" s="4"/>
       <c r="AT261" s="4"/>
     </row>
-    <row r="262" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>403979</v>
       </c>
@@ -27389,7 +27392,7 @@
       </c>
       <c r="AT262" s="4"/>
     </row>
-    <row r="263" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>403980</v>
       </c>
@@ -27483,7 +27486,7 @@
       <c r="AS263" s="4"/>
       <c r="AT263" s="4"/>
     </row>
-    <row r="264" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>403981</v>
       </c>
@@ -27581,7 +27584,7 @@
       <c r="AS264" s="4"/>
       <c r="AT264" s="4"/>
     </row>
-    <row r="265" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>403982</v>
       </c>
@@ -27679,7 +27682,7 @@
       <c r="AS265" s="4"/>
       <c r="AT265" s="4"/>
     </row>
-    <row r="266" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>403983</v>
       </c>
@@ -27783,7 +27786,7 @@
       <c r="AS266" s="4"/>
       <c r="AT266" s="4"/>
     </row>
-    <row r="267" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>403984</v>
       </c>
@@ -27883,7 +27886,7 @@
       <c r="AS267" s="4"/>
       <c r="AT267" s="4"/>
     </row>
-    <row r="268" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>403986</v>
       </c>
@@ -27977,7 +27980,7 @@
       <c r="AS268" s="4"/>
       <c r="AT268" s="4"/>
     </row>
-    <row r="269" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>403987</v>
       </c>
@@ -28049,7 +28052,7 @@
       <c r="AS269" s="4"/>
       <c r="AT269" s="4"/>
     </row>
-    <row r="270" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>404073</v>
       </c>
@@ -28141,7 +28144,7 @@
       <c r="AS270" s="4"/>
       <c r="AT270" s="4"/>
     </row>
-    <row r="271" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>404184</v>
       </c>
@@ -28219,7 +28222,7 @@
       <c r="AS271" s="4"/>
       <c r="AT271" s="4"/>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>404295</v>
       </c>
@@ -28281,7 +28284,7 @@
       <c r="AS272" s="4"/>
       <c r="AT272" s="4"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>404405</v>
       </c>
@@ -28385,7 +28388,7 @@
       </c>
       <c r="AT273" s="4"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>404515</v>
       </c>
@@ -28515,7 +28518,7 @@
       </c>
       <c r="AT274" s="4"/>
     </row>
-    <row r="275" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>404536</v>
       </c>
@@ -28583,7 +28586,7 @@
       <c r="AS275" s="4"/>
       <c r="AT275" s="4"/>
     </row>
-    <row r="276" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>404546</v>
       </c>
@@ -28647,7 +28650,7 @@
       <c r="AS276" s="4"/>
       <c r="AT276" s="4"/>
     </row>
-    <row r="277" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>404557</v>
       </c>
@@ -28739,7 +28742,7 @@
       <c r="AS277" s="4"/>
       <c r="AT277" s="4"/>
     </row>
-    <row r="278" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>404558</v>
       </c>
@@ -28831,7 +28834,7 @@
       <c r="AS278" s="4"/>
       <c r="AT278" s="4"/>
     </row>
-    <row r="279" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>404594</v>
       </c>
@@ -28909,7 +28912,7 @@
       <c r="AS279" s="4"/>
       <c r="AT279" s="4"/>
     </row>
-    <row r="280" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>404595</v>
       </c>
@@ -28993,7 +28996,7 @@
       <c r="AS280" s="4"/>
       <c r="AT280" s="4"/>
     </row>
-    <row r="281" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>404596</v>
       </c>
@@ -29079,7 +29082,7 @@
       <c r="AS281" s="4"/>
       <c r="AT281" s="4"/>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>404627</v>
       </c>
@@ -29143,7 +29146,7 @@
       <c r="AS282" s="4"/>
       <c r="AT282" s="4"/>
     </row>
-    <row r="283" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>404648</v>
       </c>
@@ -29209,7 +29212,7 @@
       <c r="AS283" s="4"/>
       <c r="AT283" s="4"/>
     </row>
-    <row r="284" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>404698</v>
       </c>
@@ -29277,7 +29280,7 @@
       <c r="AS284" s="4"/>
       <c r="AT284" s="4"/>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>404738</v>
       </c>
@@ -29409,7 +29412,7 @@
       </c>
       <c r="AT285" s="4"/>
     </row>
-    <row r="286" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>404741</v>
       </c>
@@ -29493,7 +29496,7 @@
       <c r="AS286" s="4"/>
       <c r="AT286" s="4"/>
     </row>
-    <row r="287" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>404749</v>
       </c>
@@ -29571,7 +29574,7 @@
       <c r="AS287" s="4"/>
       <c r="AT287" s="4"/>
     </row>
-    <row r="288" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>404775</v>
       </c>
@@ -29671,7 +29674,7 @@
       </c>
       <c r="AT288" s="4"/>
     </row>
-    <row r="289" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>404786</v>
       </c>
@@ -29735,7 +29738,7 @@
       <c r="AS289" s="4"/>
       <c r="AT289" s="4"/>
     </row>
-    <row r="290" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>404787</v>
       </c>
@@ -29799,7 +29802,7 @@
       <c r="AS290" s="4"/>
       <c r="AT290" s="4"/>
     </row>
-    <row r="291" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>404814</v>
       </c>
@@ -29867,7 +29870,7 @@
       <c r="AS291" s="4"/>
       <c r="AT291" s="4"/>
     </row>
-    <row r="292" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>404841</v>
       </c>
@@ -29935,7 +29938,7 @@
       <c r="AS292" s="4"/>
       <c r="AT292" s="4"/>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>404849</v>
       </c>
@@ -30059,7 +30062,7 @@
       </c>
       <c r="AT293" s="4"/>
     </row>
-    <row r="294" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>404888</v>
       </c>
@@ -30129,7 +30132,7 @@
       <c r="AS294" s="4"/>
       <c r="AT294" s="4"/>
     </row>
-    <row r="295" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>404923</v>
       </c>
@@ -30227,7 +30230,7 @@
       <c r="AS295" s="4"/>
       <c r="AT295" s="4"/>
     </row>
-    <row r="296" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>404941</v>
       </c>
@@ -30323,7 +30326,7 @@
       <c r="AS296" s="4"/>
       <c r="AT296" s="4"/>
     </row>
-    <row r="297" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>404943</v>
       </c>
@@ -30421,7 +30424,7 @@
       <c r="AS297" s="4"/>
       <c r="AT297" s="4"/>
     </row>
-    <row r="298" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>404950</v>
       </c>
@@ -30517,7 +30520,7 @@
       <c r="AS298" s="4"/>
       <c r="AT298" s="4"/>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>404958</v>
       </c>
@@ -30641,7 +30644,7 @@
       </c>
       <c r="AT299" s="4"/>
     </row>
-    <row r="300" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>404969</v>
       </c>
@@ -30711,7 +30714,7 @@
       <c r="AS300" s="4"/>
       <c r="AT300" s="4"/>
     </row>
-    <row r="301" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>405053</v>
       </c>
@@ -30809,7 +30812,7 @@
       </c>
       <c r="AT301" s="4"/>
     </row>
-    <row r="302" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>405069</v>
       </c>
@@ -30931,7 +30934,7 @@
       <c r="AS302" s="4"/>
       <c r="AT302" s="4"/>
     </row>
-    <row r="303" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>405180</v>
       </c>
@@ -31053,7 +31056,7 @@
       <c r="AS303" s="4"/>
       <c r="AT303" s="4"/>
     </row>
-    <row r="304" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>405191</v>
       </c>
@@ -31149,7 +31152,7 @@
       <c r="AS304" s="4"/>
       <c r="AT304" s="4"/>
     </row>
-    <row r="305" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>405193</v>
       </c>
@@ -31241,7 +31244,7 @@
       <c r="AS305" s="4"/>
       <c r="AT305" s="4"/>
     </row>
-    <row r="306" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>405195</v>
       </c>
@@ -31317,7 +31320,7 @@
       <c r="AS306" s="4"/>
       <c r="AT306" s="4"/>
     </row>
-    <row r="307" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>405220</v>
       </c>
@@ -31393,7 +31396,7 @@
       <c r="AS307" s="4"/>
       <c r="AT307" s="4"/>
     </row>
-    <row r="308" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>405238</v>
       </c>
@@ -31489,7 +31492,7 @@
       <c r="AS308" s="4"/>
       <c r="AT308" s="4"/>
     </row>
-    <row r="309" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>405239</v>
       </c>
@@ -31585,7 +31588,7 @@
       <c r="AS309" s="4"/>
       <c r="AT309" s="4"/>
     </row>
-    <row r="310" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>405240</v>
       </c>
@@ -31681,7 +31684,7 @@
       <c r="AS310" s="4"/>
       <c r="AT310" s="4"/>
     </row>
-    <row r="311" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>405245</v>
       </c>
@@ -31759,7 +31762,7 @@
       <c r="AS311" s="4"/>
       <c r="AT311" s="4"/>
     </row>
-    <row r="312" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>405250</v>
       </c>
@@ -31849,7 +31852,7 @@
       <c r="AS312" s="4"/>
       <c r="AT312" s="4"/>
     </row>
-    <row r="313" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>405276</v>
       </c>
@@ -31921,7 +31924,7 @@
       </c>
       <c r="AT313" s="4"/>
     </row>
-    <row r="314" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>405277</v>
       </c>
@@ -31985,7 +31988,7 @@
       <c r="AS314" s="4"/>
       <c r="AT314" s="4"/>
     </row>
-    <row r="315" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>405291</v>
       </c>
@@ -32067,7 +32070,7 @@
       <c r="AS315" s="4"/>
       <c r="AT315" s="4"/>
     </row>
-    <row r="316" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>405330</v>
       </c>
@@ -32147,7 +32150,7 @@
       <c r="AS316" s="4"/>
       <c r="AT316" s="4"/>
     </row>
-    <row r="317" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>405372</v>
       </c>
@@ -32215,7 +32218,7 @@
       <c r="AS317" s="4"/>
       <c r="AT317" s="4"/>
     </row>
-    <row r="318" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>405402</v>
       </c>
@@ -32329,7 +32332,7 @@
       </c>
       <c r="AT318" s="4"/>
     </row>
-    <row r="319" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>405439</v>
       </c>
@@ -32395,7 +32398,7 @@
       <c r="AS319" s="4"/>
       <c r="AT319" s="4"/>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>405459</v>
       </c>
@@ -32501,7 +32504,7 @@
       </c>
       <c r="AT320" s="4"/>
     </row>
-    <row r="321" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>405472</v>
       </c>
@@ -32601,7 +32604,7 @@
       </c>
       <c r="AT321" s="4"/>
     </row>
-    <row r="322" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>405513</v>
       </c>
@@ -32715,7 +32718,7 @@
       </c>
       <c r="AT322" s="4"/>
     </row>
-    <row r="323" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>405570</v>
       </c>
@@ -32789,7 +32792,7 @@
       <c r="AS323" s="4"/>
       <c r="AT323" s="4"/>
     </row>
-    <row r="324" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>405597</v>
       </c>
@@ -32871,7 +32874,7 @@
       <c r="AS324" s="4"/>
       <c r="AT324" s="4"/>
     </row>
-    <row r="325" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>405617</v>
       </c>
@@ -32976,7 +32979,7 @@
         <v>116339500</v>
       </c>
       <c r="AN325" s="2">
-        <v>11342900</v>
+        <v>113429000</v>
       </c>
       <c r="AO325" s="4"/>
       <c r="AP325" s="4"/>
@@ -32985,7 +32988,7 @@
       <c r="AS325" s="4"/>
       <c r="AT325" s="4"/>
     </row>
-    <row r="326" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>405639</v>
       </c>
@@ -33099,7 +33102,7 @@
       <c r="AS326" s="4"/>
       <c r="AT326" s="4"/>
     </row>
-    <row r="327" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>405650</v>
       </c>
@@ -33175,7 +33178,7 @@
       <c r="AS327" s="4"/>
       <c r="AT327" s="4"/>
     </row>
-    <row r="328" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>405661</v>
       </c>
@@ -33287,7 +33290,7 @@
       <c r="AS328" s="4"/>
       <c r="AT328" s="4"/>
     </row>
-    <row r="329" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>405672</v>
       </c>
@@ -33351,7 +33354,7 @@
       <c r="AS329" s="4"/>
       <c r="AT329" s="4"/>
     </row>
-    <row r="330" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>405683</v>
       </c>
@@ -33435,7 +33438,7 @@
       <c r="AS330" s="4"/>
       <c r="AT330" s="4"/>
     </row>
-    <row r="331" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>405694</v>
       </c>
@@ -33519,7 +33522,7 @@
       <c r="AS331" s="4"/>
       <c r="AT331" s="4"/>
     </row>
-    <row r="332" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>405705</v>
       </c>
@@ -33603,7 +33606,7 @@
       <c r="AS332" s="4"/>
       <c r="AT332" s="4"/>
     </row>
-    <row r="333" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>405716</v>
       </c>
@@ -33717,7 +33720,7 @@
       <c r="AS333" s="4"/>
       <c r="AT333" s="4"/>
     </row>
-    <row r="334" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>405728</v>
       </c>
@@ -33813,7 +33816,7 @@
       <c r="AS334" s="4"/>
       <c r="AT334" s="4"/>
     </row>
-    <row r="335" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>405739</v>
       </c>
@@ -33917,7 +33920,7 @@
       </c>
       <c r="AT335" s="4"/>
     </row>
-    <row r="336" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>405750</v>
       </c>
@@ -34021,7 +34024,7 @@
       </c>
       <c r="AT336" s="4"/>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>405761</v>
       </c>
@@ -34143,7 +34146,7 @@
       </c>
       <c r="AT337" s="4"/>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>405771</v>
       </c>
@@ -34205,7 +34208,7 @@
       <c r="AS338" s="4"/>
       <c r="AT338" s="4"/>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>405782</v>
       </c>
@@ -34333,7 +34336,7 @@
       </c>
       <c r="AT339" s="4"/>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>405793</v>
       </c>
@@ -34397,7 +34400,7 @@
       <c r="AS340" s="4"/>
       <c r="AT340" s="4"/>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>405804</v>
       </c>
@@ -34459,7 +34462,7 @@
       <c r="AS341" s="4"/>
       <c r="AT341" s="4"/>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>405815</v>
       </c>
@@ -34561,7 +34564,7 @@
       <c r="AS342" s="4"/>
       <c r="AT342" s="4"/>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>405826</v>
       </c>
@@ -34681,7 +34684,7 @@
       </c>
       <c r="AT343" s="4"/>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>405838</v>
       </c>
@@ -34801,7 +34804,7 @@
       </c>
       <c r="AT344" s="4"/>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>405849</v>
       </c>
@@ -34877,7 +34880,7 @@
       <c r="AS345" s="4"/>
       <c r="AT345" s="4"/>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>405860</v>
       </c>
@@ -34955,7 +34958,7 @@
       <c r="AS346" s="4"/>
       <c r="AT346" s="4"/>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>405871</v>
       </c>
@@ -35017,7 +35020,7 @@
       <c r="AS347" s="4"/>
       <c r="AT347" s="4"/>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>405882</v>
       </c>
@@ -35093,7 +35096,7 @@
       <c r="AS348" s="4"/>
       <c r="AT348" s="4"/>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>405893</v>
       </c>
@@ -35217,7 +35220,7 @@
       </c>
       <c r="AT349" s="4"/>
     </row>
-    <row r="350" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>405904</v>
       </c>
@@ -35353,7 +35356,7 @@
       </c>
       <c r="AT350" s="4"/>
     </row>
-    <row r="351" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>405915</v>
       </c>
@@ -35415,7 +35418,7 @@
       <c r="AS351" s="4"/>
       <c r="AT351" s="4"/>
     </row>
-    <row r="352" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>405926</v>
       </c>
@@ -35501,7 +35504,7 @@
       <c r="AS352" s="4"/>
       <c r="AT352" s="4"/>
     </row>
-    <row r="353" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>405937</v>
       </c>
@@ -35619,7 +35622,7 @@
       </c>
       <c r="AT353" s="4"/>
     </row>
-    <row r="354" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>405949</v>
       </c>
@@ -35751,7 +35754,7 @@
       </c>
       <c r="AT354" s="4"/>
     </row>
-    <row r="355" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>405960</v>
       </c>
@@ -35829,7 +35832,7 @@
       <c r="AS355" s="4"/>
       <c r="AT355" s="4"/>
     </row>
-    <row r="356" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>405971</v>
       </c>
@@ -35961,7 +35964,7 @@
       </c>
       <c r="AT356" s="4"/>
     </row>
-    <row r="357" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>405982</v>
       </c>
@@ -36093,7 +36096,7 @@
       <c r="AS357" s="4"/>
       <c r="AT357" s="4"/>
     </row>
-    <row r="358" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>405993</v>
       </c>
@@ -36209,7 +36212,7 @@
       <c r="AS358" s="4"/>
       <c r="AT358" s="4"/>
     </row>
-    <row r="359" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>406004</v>
       </c>
@@ -36327,7 +36330,7 @@
       <c r="AS359" s="4"/>
       <c r="AT359" s="4"/>
     </row>
-    <row r="360" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>406015</v>
       </c>
@@ -36451,7 +36454,7 @@
       <c r="AS360" s="4"/>
       <c r="AT360" s="4"/>
     </row>
-    <row r="361" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>406026</v>
       </c>
@@ -36537,7 +36540,7 @@
       <c r="AS361" s="4"/>
       <c r="AT361" s="4"/>
     </row>
-    <row r="362" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>406036</v>
       </c>
@@ -36613,7 +36616,7 @@
       <c r="AS362" s="4"/>
       <c r="AT362" s="4"/>
     </row>
-    <row r="363" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>406046</v>
       </c>
@@ -36735,7 +36738,7 @@
       </c>
       <c r="AT363" s="4"/>
     </row>
-    <row r="364" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>406047</v>
       </c>
@@ -36847,7 +36850,7 @@
       </c>
       <c r="AT364" s="4"/>
     </row>
-    <row r="365" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>406048</v>
       </c>
@@ -36953,7 +36956,7 @@
       </c>
       <c r="AT365" s="4"/>
     </row>
-    <row r="366" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>406049</v>
       </c>
@@ -37053,7 +37056,7 @@
       <c r="AS366" s="4"/>
       <c r="AT366" s="4"/>
     </row>
-    <row r="367" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>406050</v>
       </c>
@@ -37131,7 +37134,7 @@
       <c r="AS367" s="4"/>
       <c r="AT367" s="4"/>
     </row>
-    <row r="368" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>406051</v>
       </c>
@@ -37257,7 +37260,7 @@
       </c>
       <c r="AT368" s="4"/>
     </row>
-    <row r="369" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>406052</v>
       </c>
@@ -37385,7 +37388,7 @@
       </c>
       <c r="AT369" s="4"/>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>406053</v>
       </c>
@@ -37503,7 +37506,7 @@
       <c r="AS370" s="4"/>
       <c r="AT370" s="4"/>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>406054</v>
       </c>
@@ -37585,7 +37588,7 @@
       <c r="AS371" s="4"/>
       <c r="AT371" s="4"/>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>406055</v>
       </c>
@@ -37647,7 +37650,7 @@
       <c r="AS372" s="4"/>
       <c r="AT372" s="4"/>
     </row>
-    <row r="373" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>406056</v>
       </c>
@@ -37713,7 +37716,7 @@
       <c r="AS373" s="4"/>
       <c r="AT373" s="4"/>
     </row>
-    <row r="374" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>406057</v>
       </c>
@@ -37841,7 +37844,7 @@
       <c r="AS374" s="4"/>
       <c r="AT374" s="4"/>
     </row>
-    <row r="375" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>406059</v>
       </c>
@@ -37941,7 +37944,7 @@
       <c r="AS375" s="4"/>
       <c r="AT375" s="4"/>
     </row>
-    <row r="376" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>406060</v>
       </c>
@@ -38047,7 +38050,7 @@
       <c r="AS376" s="4"/>
       <c r="AT376" s="4"/>
     </row>
-    <row r="377" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>406061</v>
       </c>
@@ -38151,7 +38154,7 @@
       <c r="AS377" s="4"/>
       <c r="AT377" s="4"/>
     </row>
-    <row r="378" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>406062</v>
       </c>
@@ -38263,7 +38266,7 @@
       <c r="AS378" s="4"/>
       <c r="AT378" s="4"/>
     </row>
-    <row r="379" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>406063</v>
       </c>
@@ -38377,7 +38380,7 @@
       <c r="AS379" s="4"/>
       <c r="AT379" s="4"/>
     </row>
-    <row r="380" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>406064</v>
       </c>
@@ -38499,7 +38502,7 @@
       <c r="AS380" s="4"/>
       <c r="AT380" s="4"/>
     </row>
-    <row r="381" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>406065</v>
       </c>
@@ -38623,7 +38626,7 @@
       </c>
       <c r="AT381" s="4"/>
     </row>
-    <row r="382" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>406066</v>
       </c>
@@ -38753,7 +38756,7 @@
       </c>
       <c r="AT382" s="4"/>
     </row>
-    <row r="383" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>406067</v>
       </c>
@@ -38829,7 +38832,7 @@
       <c r="AS383" s="4"/>
       <c r="AT383" s="4"/>
     </row>
-    <row r="384" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>406068</v>
       </c>
@@ -38959,7 +38962,7 @@
       </c>
       <c r="AT384" s="4"/>
     </row>
-    <row r="385" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>406069</v>
       </c>
@@ -39077,7 +39080,7 @@
       <c r="AS385" s="4"/>
       <c r="AT385" s="4"/>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>406070</v>
       </c>
@@ -39155,7 +39158,7 @@
       <c r="AS386" s="4"/>
       <c r="AT386" s="4"/>
     </row>
-    <row r="387" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>406071</v>
       </c>
@@ -39263,7 +39266,7 @@
       <c r="AS387" s="4"/>
       <c r="AT387" s="4"/>
     </row>
-    <row r="388" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>406072</v>
       </c>
@@ -39393,7 +39396,7 @@
       <c r="AS388" s="4"/>
       <c r="AT388" s="4"/>
     </row>
-    <row r="389" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>406073</v>
       </c>
@@ -39511,7 +39514,7 @@
       <c r="AS389" s="4"/>
       <c r="AT389" s="4"/>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>406074</v>
       </c>
@@ -39649,7 +39652,7 @@
       </c>
       <c r="AT390" s="4"/>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>406075</v>
       </c>
@@ -39787,7 +39790,7 @@
       </c>
       <c r="AT391" s="4"/>
     </row>
-    <row r="392" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>406076</v>
       </c>
@@ -39907,7 +39910,7 @@
       <c r="AS392" s="4"/>
       <c r="AT392" s="4"/>
     </row>
-    <row r="393" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>406077</v>
       </c>
@@ -40031,7 +40034,7 @@
       <c r="AS393" s="4"/>
       <c r="AT393" s="4"/>
     </row>
-    <row r="394" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>406078</v>
       </c>
@@ -40165,7 +40168,7 @@
       </c>
       <c r="AT394" s="4"/>
     </row>
-    <row r="395" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>406079</v>
       </c>
@@ -40287,7 +40290,7 @@
       <c r="AS395" s="4"/>
       <c r="AT395" s="4"/>
     </row>
-    <row r="396" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>406080</v>
       </c>
@@ -40363,7 +40366,7 @@
       <c r="AS396" s="4"/>
       <c r="AT396" s="4"/>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>406081</v>
       </c>
@@ -40425,7 +40428,7 @@
       <c r="AS397" s="4"/>
       <c r="AT397" s="4"/>
     </row>
-    <row r="398" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>406082</v>
       </c>
@@ -40565,7 +40568,7 @@
         <v>12898300</v>
       </c>
     </row>
-    <row r="399" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>406083</v>
       </c>
@@ -40705,7 +40708,7 @@
         <v>12898300</v>
       </c>
     </row>
-    <row r="400" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>406084</v>
       </c>
@@ -40791,7 +40794,7 @@
       <c r="AS400" s="4"/>
       <c r="AT400" s="4"/>
     </row>
-    <row r="401" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>406085</v>
       </c>
@@ -40923,7 +40926,7 @@
       </c>
       <c r="AT401" s="4"/>
     </row>
-    <row r="402" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>406086</v>
       </c>
@@ -41027,7 +41030,7 @@
       <c r="AS402" s="4"/>
       <c r="AT402" s="4"/>
     </row>
-    <row r="403" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>406087</v>
       </c>
@@ -41139,7 +41142,7 @@
       <c r="AS403" s="4"/>
       <c r="AT403" s="4"/>
     </row>
-    <row r="404" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>406088</v>
       </c>
@@ -41251,7 +41254,7 @@
       <c r="AS404" s="4"/>
       <c r="AT404" s="4"/>
     </row>
-    <row r="405" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>406089</v>
       </c>
@@ -41329,7 +41332,7 @@
       <c r="AS405" s="4"/>
       <c r="AT405" s="4"/>
     </row>
-    <row r="406" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>406090</v>
       </c>
@@ -41455,7 +41458,7 @@
       </c>
       <c r="AT406" s="4"/>
     </row>
-    <row r="407" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>406091</v>
       </c>
@@ -41573,7 +41576,7 @@
       </c>
       <c r="AT407" s="4"/>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>406092</v>
       </c>
@@ -41705,7 +41708,7 @@
       <c r="AS408" s="4"/>
       <c r="AT408" s="4"/>
     </row>
-    <row r="409" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>406093</v>
       </c>
@@ -41831,7 +41834,7 @@
       </c>
       <c r="AT409" s="4"/>
     </row>
-    <row r="410" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>406094</v>
       </c>
@@ -41943,7 +41946,7 @@
       <c r="AS410" s="4"/>
       <c r="AT410" s="4"/>
     </row>
-    <row r="411" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>406095</v>
       </c>
@@ -42027,7 +42030,7 @@
       <c r="AS411" s="4"/>
       <c r="AT411" s="4"/>
     </row>
-    <row r="412" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>406096</v>
       </c>
@@ -42117,7 +42120,7 @@
       <c r="AS412" s="4"/>
       <c r="AT412" s="4"/>
     </row>
-    <row r="413" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>406097</v>
       </c>
@@ -42195,7 +42198,7 @@
       <c r="AS413" s="4"/>
       <c r="AT413" s="4"/>
     </row>
-    <row r="414" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>406098</v>
       </c>
@@ -42271,7 +42274,7 @@
       <c r="AS414" s="4"/>
       <c r="AT414" s="4"/>
     </row>
-    <row r="415" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>406099</v>
       </c>
@@ -42355,7 +42358,7 @@
       <c r="AS415" s="4"/>
       <c r="AT415" s="4"/>
     </row>
-    <row r="416" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>406100</v>
       </c>
@@ -42477,7 +42480,7 @@
       </c>
       <c r="AT416" s="4"/>
     </row>
-    <row r="417" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>406101</v>
       </c>
@@ -42585,7 +42588,7 @@
       <c r="AS417" s="4"/>
       <c r="AT417" s="4"/>
     </row>
-    <row r="418" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>406102</v>
       </c>
@@ -42695,7 +42698,7 @@
       <c r="AS418" s="4"/>
       <c r="AT418" s="4"/>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>406103</v>
       </c>
@@ -42827,7 +42830,7 @@
       <c r="AS419" s="4"/>
       <c r="AT419" s="4"/>
     </row>
-    <row r="420" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>406104</v>
       </c>
@@ -42945,7 +42948,7 @@
       <c r="AS420" s="4"/>
       <c r="AT420" s="4"/>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>406105</v>
       </c>
@@ -43063,7 +43066,7 @@
       <c r="AS421" s="4"/>
       <c r="AT421" s="4"/>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>406106</v>
       </c>
@@ -43143,7 +43146,7 @@
       <c r="AS422" s="4"/>
       <c r="AT422" s="4"/>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>406107</v>
       </c>
@@ -43205,7 +43208,7 @@
       <c r="AS423" s="4"/>
       <c r="AT423" s="4"/>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>406108</v>
       </c>
@@ -43267,7 +43270,7 @@
       <c r="AS424" s="4"/>
       <c r="AT424" s="4"/>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>406109</v>
       </c>
@@ -43329,7 +43332,7 @@
       <c r="AS425" s="4"/>
       <c r="AT425" s="4"/>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>406110</v>
       </c>
@@ -43393,7 +43396,7 @@
       <c r="AS426" s="4"/>
       <c r="AT426" s="4"/>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>406111</v>
       </c>
@@ -43511,7 +43514,7 @@
       <c r="AS427" s="4"/>
       <c r="AT427" s="4"/>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>406112</v>
       </c>
@@ -43629,7 +43632,7 @@
       <c r="AS428" s="4"/>
       <c r="AT428" s="4"/>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>406113</v>
       </c>
@@ -43707,7 +43710,7 @@
       <c r="AS429" s="4"/>
       <c r="AT429" s="4"/>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>406114</v>
       </c>
@@ -43825,7 +43828,7 @@
       <c r="AS430" s="4"/>
       <c r="AT430" s="4"/>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>406115</v>
       </c>
@@ -43887,7 +43890,7 @@
       <c r="AS431" s="4"/>
       <c r="AT431" s="4"/>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>406116</v>
       </c>
@@ -43947,7 +43950,7 @@
       <c r="AS432" s="4"/>
       <c r="AT432" s="4"/>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>406117</v>
       </c>
@@ -44023,7 +44026,7 @@
       <c r="AS433" s="4"/>
       <c r="AT433" s="4"/>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>406118</v>
       </c>
@@ -44085,7 +44088,7 @@
       <c r="AS434" s="4"/>
       <c r="AT434" s="4"/>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>406119</v>
       </c>
@@ -44163,7 +44166,7 @@
       <c r="AS435" s="4"/>
       <c r="AT435" s="4"/>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>406120</v>
       </c>
@@ -44237,7 +44240,7 @@
       <c r="AS436" s="4"/>
       <c r="AT436" s="4"/>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>406121</v>
       </c>
@@ -44297,7 +44300,7 @@
       <c r="AS437" s="4"/>
       <c r="AT437" s="4"/>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>406122</v>
       </c>
@@ -44357,7 +44360,7 @@
       <c r="AS438" s="4"/>
       <c r="AT438" s="4"/>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>406123</v>
       </c>
@@ -44417,7 +44420,7 @@
       <c r="AS439" s="4"/>
       <c r="AT439" s="4"/>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>406124</v>
       </c>
@@ -44477,7 +44480,7 @@
       <c r="AS440" s="4"/>
       <c r="AT440" s="4"/>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>406125</v>
       </c>
@@ -44541,7 +44544,7 @@
       <c r="AS441" s="4"/>
       <c r="AT441" s="4"/>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>406126</v>
       </c>
@@ -44601,7 +44604,7 @@
       <c r="AS442" s="4"/>
       <c r="AT442" s="4"/>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>406127</v>
       </c>
@@ -44661,7 +44664,7 @@
       <c r="AS443" s="4"/>
       <c r="AT443" s="4"/>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>406128</v>
       </c>
@@ -44721,7 +44724,7 @@
       <c r="AS444" s="4"/>
       <c r="AT444" s="4"/>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>406129</v>
       </c>
@@ -44781,7 +44784,7 @@
       <c r="AS445" s="4"/>
       <c r="AT445" s="4"/>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>406130</v>
       </c>
@@ -44841,7 +44844,7 @@
       <c r="AS446" s="4"/>
       <c r="AT446" s="4"/>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>406131</v>
       </c>
@@ -44977,7 +44980,7 @@
       <c r="AS447" s="4"/>
       <c r="AT447" s="4"/>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>406132</v>
       </c>
@@ -45111,7 +45114,7 @@
       <c r="AS448" s="4"/>
       <c r="AT448" s="4"/>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>406133</v>
       </c>
@@ -45189,7 +45192,7 @@
       <c r="AS449" s="4"/>
       <c r="AT449" s="4"/>
     </row>
-    <row r="450" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>406134</v>
       </c>
@@ -45277,7 +45280,7 @@
       <c r="AS450" s="4"/>
       <c r="AT450" s="4"/>
     </row>
-    <row r="451" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>406135</v>
       </c>
@@ -45365,7 +45368,7 @@
       <c r="AS451" s="4"/>
       <c r="AT451" s="4"/>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>406136</v>
       </c>
@@ -45429,7 +45432,7 @@
       <c r="AS452" s="4"/>
       <c r="AT452" s="4"/>
     </row>
-    <row r="453" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>406137</v>
       </c>
@@ -45549,7 +45552,7 @@
       </c>
       <c r="AT453" s="4"/>
     </row>
-    <row r="454" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>406138</v>
       </c>
@@ -45679,7 +45682,7 @@
       </c>
       <c r="AT454" s="4"/>
     </row>
-    <row r="455" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>406139</v>
       </c>
@@ -45777,7 +45780,7 @@
       <c r="AS455" s="4"/>
       <c r="AT455" s="4"/>
     </row>
-    <row r="456" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>406140</v>
       </c>
@@ -45899,7 +45902,7 @@
       <c r="AS456" s="4"/>
       <c r="AT456" s="4"/>
     </row>
-    <row r="457" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>406141</v>
       </c>
@@ -45979,7 +45982,7 @@
       <c r="AS457" s="4"/>
       <c r="AT457" s="4"/>
     </row>
-    <row r="458" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>406142</v>
       </c>
@@ -46053,7 +46056,7 @@
       <c r="AS458" s="4"/>
       <c r="AT458" s="4"/>
     </row>
-    <row r="459" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>406143</v>
       </c>
@@ -46171,7 +46174,7 @@
       <c r="AS459" s="4"/>
       <c r="AT459" s="4"/>
     </row>
-    <row r="460" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>406144</v>
       </c>
@@ -46249,7 +46252,7 @@
       <c r="AS460" s="4"/>
       <c r="AT460" s="4"/>
     </row>
-    <row r="461" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>406145</v>
       </c>
@@ -46373,7 +46376,7 @@
       <c r="AS461" s="4"/>
       <c r="AT461" s="4"/>
     </row>
-    <row r="462" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>406146</v>
       </c>
@@ -46497,7 +46500,7 @@
       <c r="AS462" s="4"/>
       <c r="AT462" s="4"/>
     </row>
-    <row r="463" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>406147</v>
       </c>
@@ -46579,7 +46582,7 @@
       <c r="AS463" s="4"/>
       <c r="AT463" s="4"/>
     </row>
-    <row r="464" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>406148</v>
       </c>
@@ -46709,7 +46712,7 @@
       <c r="AS464" s="4"/>
       <c r="AT464" s="4"/>
     </row>
-    <row r="465" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>406149</v>
       </c>
@@ -46825,7 +46828,7 @@
       <c r="AS465" s="4"/>
       <c r="AT465" s="4"/>
     </row>
-    <row r="466" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>406150</v>
       </c>
@@ -46935,7 +46938,7 @@
       <c r="AS466" s="4"/>
       <c r="AT466" s="4"/>
     </row>
-    <row r="467" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>406151</v>
       </c>
@@ -47023,7 +47026,7 @@
       <c r="AS467" s="4"/>
       <c r="AT467" s="4"/>
     </row>
-    <row r="468" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>406153</v>
       </c>
@@ -47121,7 +47124,7 @@
       <c r="AS468" s="4"/>
       <c r="AT468" s="4"/>
     </row>
-    <row r="469" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>406154</v>
       </c>
@@ -47209,7 +47212,7 @@
       <c r="AS469" s="4"/>
       <c r="AT469" s="4"/>
     </row>
-    <row r="470" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>406155</v>
       </c>
@@ -47299,7 +47302,7 @@
       <c r="AS470" s="4"/>
       <c r="AT470" s="4"/>
     </row>
-    <row r="471" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>406156</v>
       </c>
@@ -47379,7 +47382,7 @@
       <c r="AS471" s="4"/>
       <c r="AT471" s="4"/>
     </row>
-    <row r="472" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>406157</v>
       </c>
@@ -47471,7 +47474,7 @@
       <c r="AS472" s="4"/>
       <c r="AT472" s="4"/>
     </row>
-    <row r="473" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>406158</v>
       </c>
@@ -47533,7 +47536,7 @@
       <c r="AS473" s="4"/>
       <c r="AT473" s="4"/>
     </row>
-    <row r="474" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>406159</v>
       </c>
@@ -47623,7 +47626,7 @@
       <c r="AS474" s="4"/>
       <c r="AT474" s="4"/>
     </row>
-    <row r="475" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>406160</v>
       </c>
@@ -47709,7 +47712,7 @@
       <c r="AS475" s="4"/>
       <c r="AT475" s="4"/>
     </row>
-    <row r="476" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>406161</v>
       </c>
@@ -47825,7 +47828,7 @@
       <c r="AS476" s="4"/>
       <c r="AT476" s="4"/>
     </row>
-    <row r="477" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>406162</v>
       </c>
@@ -47893,7 +47896,7 @@
       <c r="AS477" s="4"/>
       <c r="AT477" s="4"/>
     </row>
-    <row r="478" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>406171</v>
       </c>
@@ -48021,7 +48024,7 @@
       <c r="AS478" s="4"/>
       <c r="AT478" s="4"/>
     </row>
-    <row r="479" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>406182</v>
       </c>
@@ -48099,7 +48102,7 @@
       <c r="AS479" s="4"/>
       <c r="AT479" s="4"/>
     </row>
-    <row r="480" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>406193</v>
       </c>
@@ -48163,7 +48166,7 @@
       <c r="AS480" s="4"/>
       <c r="AT480" s="4"/>
     </row>
-    <row r="481" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>406204</v>
       </c>
@@ -48225,7 +48228,7 @@
       <c r="AS481" s="4"/>
       <c r="AT481" s="4"/>
     </row>
-    <row r="482" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>406215</v>
       </c>
@@ -48349,7 +48352,7 @@
       <c r="AS482" s="4"/>
       <c r="AT482" s="4"/>
     </row>
-    <row r="483" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <v>406226</v>
       </c>
@@ -48487,7 +48490,7 @@
       </c>
       <c r="AT483" s="4"/>
     </row>
-    <row r="484" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <v>406237</v>
       </c>
@@ -48623,7 +48626,7 @@
       </c>
       <c r="AT484" s="4"/>
     </row>
-    <row r="485" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <v>406248</v>
       </c>
@@ -48759,7 +48762,7 @@
       </c>
       <c r="AT485" s="4"/>
     </row>
-    <row r="486" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <v>406259</v>
       </c>
@@ -48835,7 +48838,7 @@
       <c r="AS486" s="4"/>
       <c r="AT486" s="4"/>
     </row>
-    <row r="487" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>407113</v>
       </c>
@@ -48971,7 +48974,7 @@
       </c>
       <c r="AT487" s="4"/>
     </row>
-    <row r="488" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <v>407114</v>
       </c>
@@ -49095,7 +49098,7 @@
       </c>
       <c r="AT488" s="4"/>
     </row>
-    <row r="489" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <v>407116</v>
       </c>
@@ -49209,7 +49212,7 @@
       </c>
       <c r="AT489" s="4"/>
     </row>
-    <row r="490" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <v>407117</v>
       </c>
@@ -49271,7 +49274,7 @@
       <c r="AS490" s="4"/>
       <c r="AT490" s="4"/>
     </row>
-    <row r="491" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <v>407118</v>
       </c>
@@ -49333,7 +49336,7 @@
       <c r="AS491" s="4"/>
       <c r="AT491" s="4"/>
     </row>
-    <row r="492" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <v>407119</v>
       </c>
@@ -49393,7 +49396,7 @@
       <c r="AS492" s="4"/>
       <c r="AT492" s="4"/>
     </row>
-    <row r="493" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>407120</v>
       </c>
@@ -49455,7 +49458,7 @@
       <c r="AS493" s="4"/>
       <c r="AT493" s="4"/>
     </row>
-    <row r="494" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <v>407121</v>
       </c>
@@ -49515,7 +49518,7 @@
       <c r="AS494" s="4"/>
       <c r="AT494" s="4"/>
     </row>
-    <row r="495" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <v>407122</v>
       </c>
@@ -49575,7 +49578,7 @@
       <c r="AS495" s="4"/>
       <c r="AT495" s="4"/>
     </row>
-    <row r="496" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <v>407123</v>
       </c>
@@ -49635,7 +49638,7 @@
       <c r="AS496" s="4"/>
       <c r="AT496" s="4"/>
     </row>
-    <row r="497" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <v>407124</v>
       </c>
@@ -49711,7 +49714,7 @@
       <c r="AS497" s="4"/>
       <c r="AT497" s="4"/>
     </row>
-    <row r="498" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <v>407125</v>
       </c>
@@ -49835,7 +49838,7 @@
       </c>
       <c r="AT498" s="4"/>
     </row>
-    <row r="499" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>407127</v>
       </c>
@@ -49927,7 +49930,7 @@
       <c r="AS499" s="4"/>
       <c r="AT499" s="4"/>
     </row>
-    <row r="500" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <v>407128</v>
       </c>
@@ -49989,7 +49992,7 @@
       <c r="AS500" s="4"/>
       <c r="AT500" s="4"/>
     </row>
-    <row r="501" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <v>407129</v>
       </c>
@@ -50079,7 +50082,7 @@
       <c r="AS501" s="4"/>
       <c r="AT501" s="4"/>
     </row>
-    <row r="502" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <v>407130</v>
       </c>
@@ -50145,7 +50148,7 @@
       <c r="AS502" s="4"/>
       <c r="AT502" s="4"/>
     </row>
-    <row r="503" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <v>407131</v>
       </c>
@@ -50279,7 +50282,7 @@
       </c>
       <c r="AT503" s="4"/>
     </row>
-    <row r="504" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <v>407132</v>
       </c>
@@ -50403,7 +50406,7 @@
       </c>
       <c r="AT504" s="4"/>
     </row>
-    <row r="505" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>407133</v>
       </c>
@@ -50509,7 +50512,7 @@
       <c r="AS505" s="4"/>
       <c r="AT505" s="4"/>
     </row>
-    <row r="506" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <v>407134</v>
       </c>
@@ -50639,7 +50642,7 @@
       </c>
       <c r="AT506" s="4"/>
     </row>
-    <row r="507" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <v>407135</v>
       </c>
@@ -50771,7 +50774,7 @@
       </c>
       <c r="AT507" s="4"/>
     </row>
-    <row r="508" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <v>407136</v>
       </c>
@@ -50893,7 +50896,7 @@
       <c r="AS508" s="4"/>
       <c r="AT508" s="4"/>
     </row>
-    <row r="509" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <v>407138</v>
       </c>
@@ -50975,7 +50978,7 @@
       <c r="AS509" s="4"/>
       <c r="AT509" s="4"/>
     </row>
-    <row r="510" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <v>407139</v>
       </c>
@@ -51099,7 +51102,7 @@
       <c r="AS510" s="4"/>
       <c r="AT510" s="4"/>
     </row>
-    <row r="511" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>407140</v>
       </c>
@@ -51183,7 +51186,7 @@
       <c r="AS511" s="4"/>
       <c r="AT511" s="4"/>
     </row>
-    <row r="512" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <v>407141</v>
       </c>
@@ -51317,7 +51320,7 @@
       <c r="AS512" s="4"/>
       <c r="AT512" s="4"/>
     </row>
-    <row r="513" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <v>407142</v>
       </c>
@@ -51449,7 +51452,7 @@
       <c r="AS513" s="4"/>
       <c r="AT513" s="4"/>
     </row>
-    <row r="514" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <v>407143</v>
       </c>
@@ -51587,7 +51590,7 @@
       </c>
       <c r="AT514" s="4"/>
     </row>
-    <row r="515" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <v>407144</v>
       </c>
@@ -51725,7 +51728,7 @@
       </c>
       <c r="AT515" s="4"/>
     </row>
-    <row r="516" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <v>407145</v>
       </c>
@@ -51863,7 +51866,7 @@
       </c>
       <c r="AT516" s="4"/>
     </row>
-    <row r="517" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>407146</v>
       </c>
@@ -51995,7 +51998,7 @@
       </c>
       <c r="AT517" s="4"/>
     </row>
-    <row r="518" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <v>407147</v>
       </c>
@@ -52125,7 +52128,7 @@
       </c>
       <c r="AT518" s="4"/>
     </row>
-    <row r="519" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <v>407149</v>
       </c>
@@ -52187,7 +52190,7 @@
       <c r="AS519" s="4"/>
       <c r="AT519" s="4"/>
     </row>
-    <row r="520" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <v>407150</v>
       </c>
@@ -52319,7 +52322,7 @@
       </c>
       <c r="AT520" s="4"/>
     </row>
-    <row r="521" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <v>407151</v>
       </c>
@@ -52381,7 +52384,7 @@
       <c r="AS521" s="4"/>
       <c r="AT521" s="4"/>
     </row>
-    <row r="522" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <v>407152</v>
       </c>
@@ -52443,7 +52446,7 @@
       <c r="AS522" s="4"/>
       <c r="AT522" s="4"/>
     </row>
-    <row r="523" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <v>407153</v>
       </c>
@@ -52559,7 +52562,7 @@
       </c>
       <c r="AT523" s="4"/>
     </row>
-    <row r="524" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <v>407154</v>
       </c>
@@ -52643,7 +52646,7 @@
       </c>
       <c r="AT524" s="4"/>
     </row>
-    <row r="525" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <v>407155</v>
       </c>
@@ -52743,7 +52746,7 @@
       </c>
       <c r="AT525" s="4"/>
     </row>
-    <row r="526" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <v>407156</v>
       </c>
@@ -52853,7 +52856,7 @@
       <c r="AS526" s="4"/>
       <c r="AT526" s="4"/>
     </row>
-    <row r="527" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <v>407157</v>
       </c>
@@ -52931,7 +52934,7 @@
       <c r="AS527" s="4"/>
       <c r="AT527" s="4"/>
     </row>
-    <row r="528" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <v>407158</v>
       </c>
@@ -53007,7 +53010,7 @@
       <c r="AS528" s="4"/>
       <c r="AT528" s="4"/>
     </row>
-    <row r="529" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <v>407161</v>
       </c>
@@ -53067,7 +53070,7 @@
       <c r="AS529" s="4"/>
       <c r="AT529" s="4"/>
     </row>
-    <row r="530" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <v>407162</v>
       </c>
@@ -53173,7 +53176,7 @@
       <c r="AS530" s="4"/>
       <c r="AT530" s="4"/>
     </row>
-    <row r="531" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <v>407163</v>
       </c>
@@ -53293,7 +53296,7 @@
       <c r="AS531" s="4"/>
       <c r="AT531" s="4"/>
     </row>
-    <row r="532" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <v>407164</v>
       </c>
@@ -53353,7 +53356,7 @@
       <c r="AS532" s="4"/>
       <c r="AT532" s="4"/>
     </row>
-    <row r="533" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <v>407165</v>
       </c>
@@ -53479,7 +53482,7 @@
       <c r="AS533" s="4"/>
       <c r="AT533" s="4"/>
     </row>
-    <row r="534" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <v>407166</v>
       </c>
@@ -53607,7 +53610,7 @@
       </c>
       <c r="AT534" s="4"/>
     </row>
-    <row r="535" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <v>407167</v>
       </c>
@@ -53735,7 +53738,7 @@
       </c>
       <c r="AT535" s="4"/>
     </row>
-    <row r="536" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <v>407168</v>
       </c>
@@ -53843,7 +53846,7 @@
       </c>
       <c r="AT536" s="4"/>
     </row>
-    <row r="537" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <v>407169</v>
       </c>
@@ -53973,7 +53976,7 @@
       </c>
       <c r="AT537" s="4"/>
     </row>
-    <row r="538" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <v>409112</v>
       </c>
@@ -54051,7 +54054,7 @@
       <c r="AS538" s="4"/>
       <c r="AT538" s="4"/>
     </row>
-    <row r="539" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <v>409113</v>
       </c>
@@ -54169,7 +54172,7 @@
       <c r="AS539" s="4"/>
       <c r="AT539" s="4"/>
     </row>
-    <row r="540" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <v>409114</v>
       </c>
@@ -54293,7 +54296,7 @@
       <c r="AS540" s="4"/>
       <c r="AT540" s="4"/>
     </row>
-    <row r="541" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <v>409115</v>
       </c>
@@ -54429,7 +54432,7 @@
         <v>15192000</v>
       </c>
     </row>
-    <row r="542" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <v>409116</v>
       </c>
@@ -54531,7 +54534,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="543" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <v>409117</v>
       </c>
@@ -54667,7 +54670,7 @@
       </c>
       <c r="AT543" s="4"/>
     </row>
-    <row r="544" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <v>409118</v>
       </c>
@@ -54775,7 +54778,7 @@
       </c>
       <c r="AT544" s="4"/>
     </row>
-    <row r="545" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <v>409119</v>
       </c>
@@ -54889,7 +54892,7 @@
       <c r="AS545" s="4"/>
       <c r="AT545" s="4"/>
     </row>
-    <row r="546" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <v>409120</v>
       </c>
@@ -54951,7 +54954,7 @@
       <c r="AS546" s="4"/>
       <c r="AT546" s="4"/>
     </row>
-    <row r="547" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <v>409121</v>
       </c>
@@ -55027,7 +55030,7 @@
       <c r="AS547" s="4"/>
       <c r="AT547" s="4"/>
     </row>
-    <row r="548" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <v>409123</v>
       </c>
@@ -55163,7 +55166,7 @@
       <c r="AS548" s="4"/>
       <c r="AT548" s="4"/>
     </row>
-    <row r="549" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <v>409124</v>
       </c>
@@ -55299,7 +55302,7 @@
       <c r="AS549" s="4"/>
       <c r="AT549" s="4"/>
     </row>
-    <row r="550" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <v>409125</v>
       </c>
@@ -55435,7 +55438,7 @@
       <c r="AS550" s="4"/>
       <c r="AT550" s="4"/>
     </row>
-    <row r="551" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <v>409126</v>
       </c>
@@ -55571,7 +55574,7 @@
       </c>
       <c r="AT551" s="4"/>
     </row>
-    <row r="552" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <v>409127</v>
       </c>
@@ -55697,7 +55700,7 @@
       <c r="AS552" s="4"/>
       <c r="AT552" s="4"/>
     </row>
-    <row r="553" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <v>409128</v>
       </c>
@@ -55771,7 +55774,7 @@
       <c r="AS553" s="4"/>
       <c r="AT553" s="4"/>
     </row>
-    <row r="554" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <v>409129</v>
       </c>
@@ -55847,7 +55850,7 @@
       <c r="AS554" s="4"/>
       <c r="AT554" s="4"/>
     </row>
-    <row r="555" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <v>409130</v>
       </c>
@@ -55957,7 +55960,7 @@
       </c>
       <c r="AT555" s="4"/>
     </row>
-    <row r="556" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <v>409131</v>
       </c>
@@ -56037,7 +56040,7 @@
       </c>
       <c r="AT556" s="4"/>
     </row>
-    <row r="557" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <v>409132</v>
       </c>
@@ -56113,7 +56116,7 @@
       <c r="AS557" s="4"/>
       <c r="AT557" s="4"/>
     </row>
-    <row r="558" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <v>409134</v>
       </c>
@@ -56211,7 +56214,7 @@
       <c r="AS558" s="4"/>
       <c r="AT558" s="4"/>
     </row>
-    <row r="559" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <v>409135</v>
       </c>
@@ -56305,7 +56308,7 @@
       <c r="AS559" s="4"/>
       <c r="AT559" s="4"/>
     </row>
-    <row r="560" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <v>409136</v>
       </c>
@@ -56439,7 +56442,7 @@
       </c>
       <c r="AT560" s="4"/>
     </row>
-    <row r="561" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <v>409137</v>
       </c>
@@ -56571,7 +56574,7 @@
       </c>
       <c r="AT561" s="4"/>
     </row>
-    <row r="562" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <v>409138</v>
       </c>
@@ -56705,7 +56708,7 @@
       </c>
       <c r="AT562" s="4"/>
     </row>
-    <row r="563" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <v>409139</v>
       </c>
@@ -56839,7 +56842,7 @@
       </c>
       <c r="AT563" s="4"/>
     </row>
-    <row r="564" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <v>409140</v>
       </c>
@@ -56973,7 +56976,7 @@
       </c>
       <c r="AT564" s="4"/>
     </row>
-    <row r="565" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <v>409141</v>
       </c>
@@ -57107,7 +57110,7 @@
       </c>
       <c r="AT565" s="4"/>
     </row>
-    <row r="566" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <v>409142</v>
       </c>
@@ -57191,7 +57194,7 @@
       <c r="AS566" s="4"/>
       <c r="AT566" s="4"/>
     </row>
-    <row r="567" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <v>409143</v>
       </c>
@@ -57277,7 +57280,7 @@
       <c r="AS567" s="4"/>
       <c r="AT567" s="4"/>
     </row>
-    <row r="568" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <v>409145</v>
       </c>
@@ -57379,7 +57382,7 @@
       <c r="AS568" s="4"/>
       <c r="AT568" s="4"/>
     </row>
-    <row r="569" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <v>409146</v>
       </c>
@@ -57471,7 +57474,7 @@
       <c r="AS569" s="4"/>
       <c r="AT569" s="4"/>
     </row>
-    <row r="570" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <v>409147</v>
       </c>
@@ -57579,7 +57582,7 @@
       <c r="AS570" s="4"/>
       <c r="AT570" s="4"/>
     </row>
-    <row r="571" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <v>409148</v>
       </c>
@@ -57689,7 +57692,7 @@
         <v>286000</v>
       </c>
     </row>
-    <row r="572" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <v>409149</v>
       </c>
@@ -57821,7 +57824,7 @@
       <c r="AS572" s="4"/>
       <c r="AT572" s="4"/>
     </row>
-    <row r="573" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <v>409150</v>
       </c>
@@ -57961,7 +57964,7 @@
         <v>127178800</v>
       </c>
     </row>
-    <row r="574" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <v>409151</v>
       </c>
@@ -58039,7 +58042,7 @@
       <c r="AS574" s="4"/>
       <c r="AT574" s="4"/>
     </row>
-    <row r="575" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <v>409152</v>
       </c>
@@ -58121,7 +58124,7 @@
       <c r="AS575" s="4"/>
       <c r="AT575" s="4"/>
     </row>
-    <row r="576" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <v>409153</v>
       </c>
@@ -58235,7 +58238,7 @@
         <v>36437000</v>
       </c>
     </row>
-    <row r="577" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <v>409154</v>
       </c>
@@ -58375,7 +58378,7 @@
         <v>35784000</v>
       </c>
     </row>
-    <row r="578" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <v>409157</v>
       </c>
@@ -58435,7 +58438,7 @@
       <c r="AS578" s="4"/>
       <c r="AT578" s="4"/>
     </row>
-    <row r="579" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <v>409158</v>
       </c>
@@ -58567,7 +58570,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="580" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <v>409848</v>
       </c>
@@ -58645,7 +58648,7 @@
       <c r="AS580" s="4"/>
       <c r="AT580" s="4"/>
     </row>
-    <row r="581" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <v>409853</v>
       </c>
@@ -58749,7 +58752,7 @@
       <c r="AS581" s="4"/>
       <c r="AT581" s="4"/>
     </row>
-    <row r="582" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <v>410044</v>
       </c>
@@ -58865,7 +58868,7 @@
       </c>
       <c r="AT582" s="4"/>
     </row>
-    <row r="583" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <v>410079</v>
       </c>
@@ -58983,7 +58986,7 @@
         <v>53204000</v>
       </c>
     </row>
-    <row r="584" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <v>410189</v>
       </c>
@@ -59073,7 +59076,7 @@
       </c>
       <c r="AT584" s="4"/>
     </row>
-    <row r="585" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <v>410211</v>
       </c>
@@ -59187,7 +59190,7 @@
       </c>
       <c r="AT585" s="4"/>
     </row>
-    <row r="586" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <v>410217</v>
       </c>
@@ -59297,7 +59300,7 @@
       <c r="AS586" s="4"/>
       <c r="AT586" s="4"/>
     </row>
-    <row r="587" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <v>410227</v>
       </c>
@@ -59429,7 +59432,7 @@
       </c>
       <c r="AT587" s="4"/>
     </row>
-    <row r="588" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <v>410268</v>
       </c>
@@ -59537,7 +59540,7 @@
       <c r="AS588" s="4"/>
       <c r="AT588" s="4"/>
     </row>
-    <row r="589" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <v>410307</v>
       </c>
@@ -59623,7 +59626,7 @@
       <c r="AS589" s="4"/>
       <c r="AT589" s="4"/>
     </row>
-    <row r="590" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <v>410310</v>
       </c>
@@ -59731,7 +59734,7 @@
       </c>
       <c r="AT590" s="4"/>
     </row>
-    <row r="591" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <v>410329</v>
       </c>
@@ -59811,7 +59814,7 @@
       <c r="AS591" s="4"/>
       <c r="AT591" s="4"/>
     </row>
-    <row r="592" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <v>410340</v>
       </c>
@@ -59903,7 +59906,7 @@
       <c r="AS592" s="4"/>
       <c r="AT592" s="4"/>
     </row>
-    <row r="593" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <v>410406</v>
       </c>
@@ -59993,7 +59996,7 @@
       <c r="AS593" s="4"/>
       <c r="AT593" s="4"/>
     </row>
-    <row r="594" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <v>410990</v>
       </c>
@@ -60087,7 +60090,7 @@
       </c>
       <c r="AT594" s="4"/>
     </row>
-    <row r="595" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <v>411035</v>
       </c>
@@ -60153,7 +60156,7 @@
       <c r="AS595" s="4"/>
       <c r="AT595" s="4"/>
     </row>
-    <row r="596" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <v>411038</v>
       </c>
@@ -60233,7 +60236,7 @@
       <c r="AS596" s="4"/>
       <c r="AT596" s="4"/>
     </row>
-    <row r="597" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <v>411141</v>
       </c>
@@ -60321,7 +60324,7 @@
       </c>
       <c r="AT597" s="4"/>
     </row>
-    <row r="598" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <v>411142</v>
       </c>
@@ -60413,7 +60416,7 @@
       </c>
       <c r="AT598" s="4"/>
     </row>
-    <row r="599" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <v>411146</v>
       </c>
@@ -60503,7 +60506,7 @@
       </c>
       <c r="AT599" s="4"/>
     </row>
-    <row r="600" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <v>411189</v>
       </c>
@@ -60569,7 +60572,7 @@
       <c r="AS600" s="4"/>
       <c r="AT600" s="4"/>
     </row>
-    <row r="601" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <v>411208</v>
       </c>
@@ -60661,7 +60664,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="602" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <v>411270</v>
       </c>
@@ -60739,7 +60742,7 @@
       <c r="AS602" s="4"/>
       <c r="AT602" s="4"/>
     </row>
-    <row r="603" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <v>411271</v>
       </c>
@@ -60835,7 +60838,7 @@
       </c>
       <c r="AT603" s="4"/>
     </row>
-    <row r="604" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <v>411280</v>
       </c>
@@ -60915,7 +60918,7 @@
       <c r="AS604" s="4"/>
       <c r="AT604" s="4"/>
     </row>
-    <row r="605" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <v>411310</v>
       </c>
@@ -60995,7 +60998,7 @@
       <c r="AS605" s="4"/>
       <c r="AT605" s="4"/>
     </row>
-    <row r="606" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <v>411358</v>
       </c>
@@ -61065,7 +61068,7 @@
       <c r="AS606" s="4"/>
       <c r="AT606" s="4"/>
     </row>
-    <row r="607" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <v>411363</v>
       </c>
@@ -61133,7 +61136,7 @@
       <c r="AS607" s="4"/>
       <c r="AT607" s="4"/>
     </row>
-    <row r="608" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <v>411396</v>
       </c>
@@ -61213,7 +61216,7 @@
       <c r="AS608" s="4"/>
       <c r="AT608" s="4"/>
     </row>
-    <row r="609" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <v>411521</v>
       </c>
@@ -61289,7 +61292,7 @@
       <c r="AS609" s="4"/>
       <c r="AT609" s="4"/>
     </row>
-    <row r="610" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <v>411522</v>
       </c>
@@ -61365,7 +61368,7 @@
       <c r="AS610" s="4"/>
       <c r="AT610" s="4"/>
     </row>
-    <row r="611" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <v>411588</v>
       </c>
@@ -61441,7 +61444,7 @@
       <c r="AS611" s="4"/>
       <c r="AT611" s="4"/>
     </row>
-    <row r="612" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <v>411589</v>
       </c>
@@ -61515,7 +61518,7 @@
       <c r="AS612" s="4"/>
       <c r="AT612" s="4"/>
     </row>
-    <row r="613" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <v>411591</v>
       </c>
@@ -61605,7 +61608,7 @@
       </c>
       <c r="AT613" s="4"/>
     </row>
-    <row r="614" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <v>411592</v>
       </c>
@@ -61697,7 +61700,7 @@
       </c>
       <c r="AT614" s="4"/>
     </row>
-    <row r="615" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <v>411593</v>
       </c>
@@ -61765,7 +61768,7 @@
       <c r="AS615" s="4"/>
       <c r="AT615" s="4"/>
     </row>
-    <row r="616" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <v>411629</v>
       </c>
@@ -61845,7 +61848,7 @@
       </c>
       <c r="AT616" s="4"/>
     </row>
-    <row r="617" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <v>411738</v>
       </c>
@@ -61919,7 +61922,7 @@
       <c r="AS617" s="4"/>
       <c r="AT617" s="4"/>
     </row>
-    <row r="618" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <v>411845</v>
       </c>
@@ -62005,7 +62008,7 @@
       <c r="AS618" s="4"/>
       <c r="AT618" s="4"/>
     </row>
-    <row r="619" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <v>411855</v>
       </c>
@@ -62083,7 +62086,7 @@
       <c r="AS619" s="4"/>
       <c r="AT619" s="4"/>
     </row>
-    <row r="620" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <v>411856</v>
       </c>
@@ -62161,7 +62164,7 @@
       <c r="AS620" s="4"/>
       <c r="AT620" s="4"/>
     </row>
-    <row r="621" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <v>411891</v>
       </c>
@@ -62239,7 +62242,7 @@
       <c r="AS621" s="4"/>
       <c r="AT621" s="4"/>
     </row>
-    <row r="622" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <v>411892</v>
       </c>
@@ -62317,7 +62320,7 @@
       <c r="AS622" s="4"/>
       <c r="AT622" s="4"/>
     </row>
-    <row r="623" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <v>411955</v>
       </c>
@@ -62401,7 +62404,7 @@
       <c r="AS623" s="4"/>
       <c r="AT623" s="4"/>
     </row>
-    <row r="624" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <v>411972</v>
       </c>
@@ -62467,7 +62470,7 @@
       <c r="AS624" s="4"/>
       <c r="AT624" s="4"/>
     </row>
-    <row r="625" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <v>412005</v>
       </c>
@@ -62555,7 +62558,7 @@
       </c>
       <c r="AT625" s="4"/>
     </row>
-    <row r="626" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <v>412015</v>
       </c>
@@ -62619,7 +62622,7 @@
       <c r="AS626" s="4"/>
       <c r="AT626" s="4"/>
     </row>
-    <row r="627" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <v>412107</v>
       </c>
@@ -62697,7 +62700,7 @@
         <v>35424000</v>
       </c>
     </row>
-    <row r="628" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <v>412244</v>
       </c>
@@ -62763,7 +62766,7 @@
       <c r="AS628" s="4"/>
       <c r="AT628" s="4"/>
     </row>
-    <row r="629" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <v>412247</v>
       </c>
@@ -62827,7 +62830,7 @@
       <c r="AS629" s="4"/>
       <c r="AT629" s="4"/>
     </row>
-    <row r="630" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <v>412271</v>
       </c>
@@ -62913,7 +62916,7 @@
       </c>
       <c r="AT630" s="4"/>
     </row>
-    <row r="631" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <v>420146</v>
       </c>
@@ -62979,7 +62982,7 @@
       <c r="AS631" s="4"/>
       <c r="AT631" s="4"/>
     </row>
-    <row r="632" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <v>420462</v>
       </c>
@@ -63053,7 +63056,7 @@
       <c r="AS632" s="4"/>
       <c r="AT632" s="4"/>
     </row>
-    <row r="633" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <v>420496</v>
       </c>
@@ -63125,7 +63128,7 @@
       <c r="AS633" s="4"/>
       <c r="AT633" s="4"/>
     </row>
-    <row r="634" spans="1:46" ht="105" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:46" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <v>420715</v>
       </c>
@@ -63203,7 +63206,7 @@
       <c r="AS634" s="4"/>
       <c r="AT634" s="4"/>
     </row>
-    <row r="635" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <v>421101</v>
       </c>
@@ -63267,7 +63270,7 @@
       <c r="AS635" s="4"/>
       <c r="AT635" s="4"/>
     </row>
-    <row r="636" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <v>421107</v>
       </c>
@@ -63333,7 +63336,7 @@
       <c r="AS636" s="4"/>
       <c r="AT636" s="4"/>
     </row>
-    <row r="637" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <v>421109</v>
       </c>
@@ -63399,7 +63402,7 @@
       <c r="AS637" s="4"/>
       <c r="AT637" s="4"/>
     </row>
-    <row r="638" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <v>421121</v>
       </c>
@@ -63463,7 +63466,7 @@
       <c r="AS638" s="4"/>
       <c r="AT638" s="4"/>
     </row>
-    <row r="639" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
         <v>421122</v>
       </c>
@@ -63535,7 +63538,7 @@
         <v>19533600</v>
       </c>
     </row>
-    <row r="640" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <v>421269</v>
       </c>
@@ -63605,7 +63608,7 @@
       </c>
       <c r="AT640" s="4"/>
     </row>
-    <row r="641" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <v>421281</v>
       </c>
@@ -63677,7 +63680,7 @@
       </c>
       <c r="AT641" s="4"/>
     </row>
-    <row r="642" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <v>421301</v>
       </c>
@@ -63749,7 +63752,7 @@
         <v>6255195</v>
       </c>
     </row>
-    <row r="643" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <v>421315</v>
       </c>
@@ -63813,7 +63816,7 @@
       <c r="AS643" s="4"/>
       <c r="AT643" s="4"/>
     </row>
-    <row r="644" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <v>421987</v>
       </c>
@@ -63887,7 +63890,7 @@
       <c r="AS644" s="4"/>
       <c r="AT644" s="4"/>
     </row>
-    <row r="645" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <v>422892</v>
       </c>
@@ -63973,7 +63976,7 @@
       <c r="AS645" s="4"/>
       <c r="AT645" s="4"/>
     </row>
-    <row r="646" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <v>426767</v>
       </c>
@@ -64037,7 +64040,7 @@
       <c r="AS646" s="4"/>
       <c r="AT646" s="4"/>
     </row>
-    <row r="647" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <v>426768</v>
       </c>
@@ -64101,7 +64104,7 @@
       <c r="AS647" s="4"/>
       <c r="AT647" s="4"/>
     </row>
-    <row r="648" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <v>426770</v>
       </c>
@@ -64167,7 +64170,7 @@
       <c r="AS648" s="4"/>
       <c r="AT648" s="4"/>
     </row>
-    <row r="649" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <v>427085</v>
       </c>
@@ -64231,7 +64234,7 @@
       <c r="AS649" s="4"/>
       <c r="AT649" s="4"/>
     </row>
-    <row r="650" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <v>429844</v>
       </c>
@@ -64303,7 +64306,7 @@
       <c r="AS650" s="4"/>
       <c r="AT650" s="4"/>
     </row>
-    <row r="651" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <v>429845</v>
       </c>
@@ -64375,7 +64378,7 @@
       <c r="AS651" s="4"/>
       <c r="AT651" s="4"/>
     </row>
-    <row r="652" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <v>429846</v>
       </c>
@@ -64447,7 +64450,7 @@
       <c r="AS652" s="4"/>
       <c r="AT652" s="4"/>
     </row>
-    <row r="653" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <v>430037</v>
       </c>
@@ -64515,7 +64518,7 @@
       <c r="AS653" s="4"/>
       <c r="AT653" s="4"/>
     </row>
-    <row r="654" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <v>430829</v>
       </c>
@@ -64579,7 +64582,7 @@
       <c r="AS654" s="4"/>
       <c r="AT654" s="4"/>
     </row>
-    <row r="655" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <v>431914</v>
       </c>
@@ -64651,7 +64654,7 @@
       </c>
       <c r="AT655" s="4"/>
     </row>
-    <row r="656" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <v>435373</v>
       </c>
@@ -64725,7 +64728,7 @@
       <c r="AS656" s="4"/>
       <c r="AT656" s="4"/>
     </row>
-    <row r="657" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <v>435374</v>
       </c>
@@ -64799,7 +64802,7 @@
       <c r="AS657" s="4"/>
       <c r="AT657" s="4"/>
     </row>
-    <row r="658" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <v>435549</v>
       </c>
@@ -64873,7 +64876,7 @@
         <v>19066400</v>
       </c>
     </row>
-    <row r="659" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <v>436574</v>
       </c>
@@ -64945,7 +64948,7 @@
         <v>11376000</v>
       </c>
     </row>
-    <row r="660" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
         <v>437190</v>
       </c>
@@ -65019,7 +65022,7 @@
       </c>
       <c r="AT660" s="4"/>
     </row>
-    <row r="661" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <v>437209</v>
       </c>
@@ -65087,7 +65090,7 @@
       <c r="AS661" s="4"/>
       <c r="AT661" s="4"/>
     </row>
-    <row r="662" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <v>437210</v>
       </c>
@@ -65155,7 +65158,7 @@
       <c r="AS662" s="4"/>
       <c r="AT662" s="4"/>
     </row>
-    <row r="663" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A663" s="2">
         <v>437211</v>
       </c>
@@ -65219,7 +65222,7 @@
       <c r="AS663" s="4"/>
       <c r="AT663" s="4"/>
     </row>
-    <row r="664" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <v>437984</v>
       </c>
@@ -65291,7 +65294,7 @@
         <v>19926000</v>
       </c>
     </row>
-    <row r="665" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <v>438594</v>
       </c>
@@ -65355,7 +65358,7 @@
       <c r="AS665" s="4"/>
       <c r="AT665" s="4"/>
     </row>
-    <row r="666" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <v>438595</v>
       </c>
@@ -65423,7 +65426,7 @@
         <v>7596000</v>
       </c>
     </row>
-    <row r="667" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <v>439985</v>
       </c>
@@ -65487,7 +65490,7 @@
       <c r="AS667" s="4"/>
       <c r="AT667" s="4"/>
     </row>
-    <row r="668" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <v>442115</v>
       </c>
@@ -65561,7 +65564,7 @@
       </c>
       <c r="AT668" s="4"/>
     </row>
-    <row r="669" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <v>444543</v>
       </c>
@@ -65633,7 +65636,7 @@
       </c>
       <c r="AT669" s="4"/>
     </row>
-    <row r="670" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <v>446235</v>
       </c>
@@ -65697,7 +65700,7 @@
       </c>
       <c r="AT670" s="4"/>
     </row>
-    <row r="671" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <v>446236</v>
       </c>
@@ -65761,7 +65764,7 @@
       </c>
       <c r="AT671" s="4"/>
     </row>
-    <row r="672" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <v>446237</v>
       </c>
@@ -65825,7 +65828,7 @@
       </c>
       <c r="AT672" s="4"/>
     </row>
-    <row r="673" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <v>446238</v>
       </c>
@@ -65889,7 +65892,7 @@
       </c>
       <c r="AT673" s="4"/>
     </row>
-    <row r="674" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <v>447253</v>
       </c>
@@ -65953,7 +65956,7 @@
       </c>
       <c r="AT674" s="4"/>
     </row>
-    <row r="675" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <v>449525</v>
       </c>
@@ -66027,7 +66030,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="676" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <v>450422</v>
       </c>
@@ -66099,7 +66102,7 @@
         <v>11952000</v>
       </c>
     </row>
-    <row r="677" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <v>450632</v>
       </c>
@@ -66181,7 +66184,7 @@
       </c>
       <c r="AT677" s="4"/>
     </row>
-    <row r="678" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <v>450633</v>
       </c>
@@ -66263,7 +66266,7 @@
       </c>
       <c r="AT678" s="4"/>
     </row>
-    <row r="679" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <v>450634</v>
       </c>
@@ -66345,7 +66348,7 @@
       </c>
       <c r="AT679" s="4"/>
     </row>
-    <row r="680" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A680" s="2">
         <v>453236</v>
       </c>
@@ -66417,7 +66420,7 @@
       </c>
       <c r="AT680" s="4"/>
     </row>
-    <row r="681" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A681" s="2">
         <v>455464</v>
       </c>
@@ -66481,7 +66484,7 @@
       <c r="AS681" s="4"/>
       <c r="AT681" s="4"/>
     </row>
-    <row r="682" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A682" s="2">
         <v>455597</v>
       </c>
@@ -66549,7 +66552,7 @@
       </c>
       <c r="AT682" s="4"/>
     </row>
-    <row r="683" spans="1:46" ht="120" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:46" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A683" s="2">
         <v>455598</v>
       </c>
@@ -66615,7 +66618,7 @@
       </c>
       <c r="AT683" s="4"/>
     </row>
-    <row r="684" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A684" s="2">
         <v>455600</v>
       </c>
@@ -66679,7 +66682,7 @@
       <c r="AS684" s="4"/>
       <c r="AT684" s="4"/>
     </row>
-    <row r="685" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A685" s="2">
         <v>455726</v>
       </c>
@@ -66743,7 +66746,7 @@
       <c r="AS685" s="4"/>
       <c r="AT685" s="4"/>
     </row>
-    <row r="686" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A686" s="2">
         <v>457617</v>
       </c>
@@ -66809,7 +66812,7 @@
       <c r="AS686" s="4"/>
       <c r="AT686" s="4"/>
     </row>
-    <row r="687" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A687" s="2">
         <v>458641</v>
       </c>
@@ -66879,7 +66882,7 @@
       </c>
       <c r="AT687" s="4"/>
     </row>
-    <row r="688" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A688" s="2">
         <v>458645</v>
       </c>
@@ -66945,7 +66948,7 @@
       <c r="AS688" s="4"/>
       <c r="AT688" s="4"/>
     </row>
-    <row r="689" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A689" s="2">
         <v>460849</v>
       </c>
@@ -67021,7 +67024,7 @@
         <v>40909000</v>
       </c>
     </row>
-    <row r="690" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A690" s="2">
         <v>461930</v>
       </c>
@@ -67085,7 +67088,7 @@
       <c r="AS690" s="4"/>
       <c r="AT690" s="4"/>
     </row>
-    <row r="691" spans="1:46" ht="105" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:46" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A691" s="2">
         <v>461980</v>
       </c>
@@ -67153,7 +67156,7 @@
       </c>
       <c r="AT691" s="4"/>
     </row>
-    <row r="692" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A692" s="2">
         <v>463303</v>
       </c>
@@ -67223,7 +67226,7 @@
       </c>
       <c r="AT692" s="4"/>
     </row>
-    <row r="693" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A693" s="2">
         <v>463627</v>
       </c>
@@ -67287,7 +67290,7 @@
       <c r="AS693" s="4"/>
       <c r="AT693" s="4"/>
     </row>
-    <row r="694" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A694" s="2">
         <v>464146</v>
       </c>
@@ -67361,7 +67364,7 @@
       </c>
       <c r="AT694" s="4"/>
     </row>
-    <row r="695" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A695" s="2">
         <v>464147</v>
       </c>
@@ -67435,7 +67438,7 @@
       </c>
       <c r="AT695" s="4"/>
     </row>
-    <row r="696" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A696" s="2">
         <v>464148</v>
       </c>
@@ -67509,7 +67512,7 @@
       </c>
       <c r="AT696" s="4"/>
     </row>
-    <row r="697" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A697" s="2">
         <v>464910</v>
       </c>
@@ -67577,7 +67580,7 @@
       </c>
       <c r="AT697" s="4"/>
     </row>
-    <row r="698" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A698" s="2">
         <v>464913</v>
       </c>
@@ -67647,7 +67650,7 @@
       </c>
       <c r="AT698" s="4"/>
     </row>
-    <row r="699" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A699" s="2">
         <v>464915</v>
       </c>
@@ -67717,7 +67720,7 @@
       </c>
       <c r="AT699" s="4"/>
     </row>
-    <row r="700" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A700" s="2">
         <v>468484</v>
       </c>
@@ -67789,7 +67792,7 @@
         <v>3604500</v>
       </c>
     </row>
-    <row r="701" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A701" s="2">
         <v>468490</v>
       </c>
@@ -67859,7 +67862,7 @@
       </c>
       <c r="AT701" s="4"/>
     </row>
-    <row r="702" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A702" s="2">
         <v>470759</v>
       </c>
@@ -67931,7 +67934,7 @@
         <v>12784200</v>
       </c>
     </row>
-    <row r="703" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A703" s="2">
         <v>471888</v>
       </c>
@@ -68001,7 +68004,7 @@
       </c>
       <c r="AT703" s="4"/>
     </row>
-    <row r="704" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A704" s="2">
         <v>472020</v>
       </c>
@@ -68075,7 +68078,7 @@
         <v>108000</v>
       </c>
     </row>
-    <row r="705" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A705" s="2">
         <v>472397</v>
       </c>
@@ -68147,7 +68150,7 @@
         <v>81450</v>
       </c>
     </row>
-    <row r="706" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A706" s="2">
         <v>472406</v>
       </c>
@@ -68215,7 +68218,7 @@
       </c>
       <c r="AT706" s="4"/>
     </row>
-    <row r="707" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A707" s="2">
         <v>473576</v>
       </c>
@@ -68279,7 +68282,7 @@
       <c r="AS707" s="4"/>
       <c r="AT707" s="4"/>
     </row>
-    <row r="708" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A708" s="2">
         <v>473579</v>
       </c>
@@ -68343,7 +68346,7 @@
       <c r="AS708" s="4"/>
       <c r="AT708" s="4"/>
     </row>
-    <row r="709" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A709" s="2">
         <v>473681</v>
       </c>
@@ -68411,7 +68414,7 @@
         <v>108616000</v>
       </c>
     </row>
-    <row r="710" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A710" s="2">
         <v>474846</v>
       </c>
@@ -68481,7 +68484,7 @@
       </c>
       <c r="AT710" s="4"/>
     </row>
-    <row r="711" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A711" s="2">
         <v>474848</v>
       </c>
@@ -68551,7 +68554,7 @@
       </c>
       <c r="AT711" s="4"/>
     </row>
-    <row r="712" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A712" s="2">
         <v>474975</v>
       </c>
@@ -68615,7 +68618,7 @@
       <c r="AS712" s="4"/>
       <c r="AT712" s="4"/>
     </row>
-    <row r="713" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A713" s="2">
         <v>474977</v>
       </c>
@@ -68683,7 +68686,7 @@
         <v>7286400</v>
       </c>
     </row>
-    <row r="714" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
         <v>475031</v>
       </c>
@@ -68751,7 +68754,7 @@
       <c r="AS714" s="4"/>
       <c r="AT714" s="4"/>
     </row>
-    <row r="715" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A715" s="2">
         <v>475149</v>
       </c>
@@ -68823,7 +68826,7 @@
       </c>
       <c r="AT715" s="4"/>
     </row>
-    <row r="716" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A716" s="2">
         <v>475314</v>
       </c>
@@ -68887,7 +68890,7 @@
       <c r="AS716" s="4"/>
       <c r="AT716" s="4"/>
     </row>
-    <row r="717" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A717" s="2">
         <v>476163</v>
       </c>
@@ -68957,7 +68960,7 @@
       </c>
       <c r="AT717" s="4"/>
     </row>
-    <row r="718" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A718" s="2">
         <v>476165</v>
       </c>
@@ -69029,7 +69032,7 @@
       </c>
       <c r="AT718" s="4"/>
     </row>
-    <row r="719" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A719" s="2">
         <v>476169</v>
       </c>
@@ -69101,7 +69104,7 @@
         <v>7812000</v>
       </c>
     </row>
-    <row r="720" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A720" s="2">
         <v>476278</v>
       </c>
@@ -69165,7 +69168,7 @@
       <c r="AS720" s="4"/>
       <c r="AT720" s="4"/>
     </row>
-    <row r="721" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:46" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A721" s="2">
         <v>476279</v>
       </c>
@@ -69229,7 +69232,7 @@
       <c r="AS721" s="4"/>
       <c r="AT721" s="4"/>
     </row>
-    <row r="722" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A722" s="2">
         <v>476342</v>
       </c>
@@ -69299,7 +69302,7 @@
       </c>
       <c r="AT722" s="4"/>
     </row>
-    <row r="723" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A723" s="2">
         <v>476343</v>
       </c>
@@ -69369,7 +69372,7 @@
       </c>
       <c r="AT723" s="4"/>
     </row>
-    <row r="724" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A724" s="2">
         <v>477687</v>
       </c>
@@ -69437,7 +69440,7 @@
       <c r="AS724" s="4"/>
       <c r="AT724" s="4"/>
     </row>
-    <row r="725" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A725" s="2">
         <v>477690</v>
       </c>
@@ -69507,7 +69510,7 @@
       </c>
       <c r="AT725" s="4"/>
     </row>
-    <row r="726" spans="1:46" ht="105" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:46" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A726" s="2">
         <v>485273</v>
       </c>
@@ -69575,7 +69578,7 @@
       </c>
       <c r="AT726" s="4"/>
     </row>
-    <row r="727" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A727" s="2">
         <v>485776</v>
       </c>
@@ -69643,7 +69646,7 @@
       </c>
       <c r="AT727" s="4"/>
     </row>
-    <row r="728" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
         <v>485777</v>
       </c>
@@ -69711,7 +69714,7 @@
       </c>
       <c r="AT728" s="4"/>
     </row>
-    <row r="729" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A729" s="2">
         <v>485817</v>
       </c>
@@ -69783,7 +69786,7 @@
         <v>7743600</v>
       </c>
     </row>
-    <row r="730" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A730" s="2">
         <v>485818</v>
       </c>
@@ -69855,7 +69858,7 @@
         <v>16140000</v>
       </c>
     </row>
-    <row r="731" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A731" s="2">
         <v>486817</v>
       </c>
@@ -69927,7 +69930,7 @@
         <v>6518400</v>
       </c>
     </row>
-    <row r="732" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A732" s="2">
         <v>487100</v>
       </c>
@@ -69991,7 +69994,7 @@
       <c r="AS732" s="4"/>
       <c r="AT732" s="4"/>
     </row>
-    <row r="733" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A733" s="2">
         <v>487105</v>
       </c>
@@ -70059,7 +70062,7 @@
       <c r="AS733" s="4"/>
       <c r="AT733" s="4"/>
     </row>
-    <row r="734" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
         <v>487213</v>
       </c>
@@ -70129,7 +70132,7 @@
       </c>
       <c r="AT734" s="4"/>
     </row>
-    <row r="735" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A735" s="2">
         <v>487214</v>
       </c>
@@ -70201,7 +70204,7 @@
         <v>14124600</v>
       </c>
     </row>
-    <row r="736" spans="1:46" ht="60" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:46" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A736" s="2">
         <v>487216</v>
       </c>
@@ -70271,7 +70274,7 @@
       </c>
       <c r="AT736" s="4"/>
     </row>
-    <row r="737" spans="1:46" ht="135" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:46" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A737" s="2">
         <v>487219</v>
       </c>
@@ -70341,7 +70344,7 @@
       </c>
       <c r="AT737" s="4"/>
     </row>
-    <row r="738" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A738" s="2">
         <v>489879</v>
       </c>
@@ -70411,7 +70414,7 @@
       </c>
       <c r="AT738" s="4"/>
     </row>
-    <row r="739" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A739" s="2">
         <v>489880</v>
       </c>
@@ -70479,7 +70482,7 @@
       <c r="AS739" s="4"/>
       <c r="AT739" s="4"/>
     </row>
-    <row r="740" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
         <v>489911</v>
       </c>
@@ -70545,7 +70548,7 @@
       </c>
       <c r="AT740" s="4"/>
     </row>
-    <row r="741" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A741" s="2">
         <v>489912</v>
       </c>
@@ -70611,7 +70614,7 @@
       </c>
       <c r="AT741" s="4"/>
     </row>
-    <row r="742" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A742" s="2">
         <v>489935</v>
       </c>
@@ -70677,7 +70680,7 @@
       <c r="AS742" s="4"/>
       <c r="AT742" s="4"/>
     </row>
-    <row r="743" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A743" s="2">
         <v>489937</v>
       </c>
@@ -70747,7 +70750,7 @@
       </c>
       <c r="AT743" s="4"/>
     </row>
-    <row r="744" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A744" s="2">
         <v>489967</v>
       </c>
@@ -70809,7 +70812,7 @@
       <c r="AS744" s="4"/>
       <c r="AT744" s="4"/>
     </row>
-    <row r="745" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A745" s="2">
         <v>489973</v>
       </c>
@@ -70879,7 +70882,7 @@
       </c>
       <c r="AT745" s="4"/>
     </row>
-    <row r="746" spans="1:46" ht="90" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A746" s="2">
         <v>490132</v>
       </c>
@@ -70949,7 +70952,7 @@
       </c>
       <c r="AT746" s="4"/>
     </row>
-    <row r="747" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A747" s="2">
         <v>490212</v>
       </c>
@@ -71015,7 +71018,7 @@
       </c>
       <c r="AT747" s="4"/>
     </row>
-    <row r="748" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A748" s="2">
         <v>491386</v>
       </c>
@@ -71079,7 +71082,7 @@
       <c r="AS748" s="4"/>
       <c r="AT748" s="4"/>
     </row>
-    <row r="749" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A749" s="2">
         <v>491436</v>
       </c>
@@ -71151,7 +71154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A750" s="2">
         <v>491597</v>
       </c>
@@ -71215,7 +71218,7 @@
       </c>
       <c r="AT750" s="4"/>
     </row>
-    <row r="751" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A751" s="2">
         <v>493876</v>
       </c>
@@ -71279,7 +71282,7 @@
       </c>
       <c r="AT751" s="4"/>
     </row>
-    <row r="752" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A752" s="2">
         <v>494325</v>
       </c>
@@ -71343,7 +71346,7 @@
       </c>
       <c r="AT752" s="4"/>
     </row>
-    <row r="753" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A753" s="2">
         <v>496486</v>
       </c>
@@ -71407,7 +71410,7 @@
       </c>
       <c r="AT753" s="4"/>
     </row>
-    <row r="754" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:46" ht="72" x14ac:dyDescent="0.3">
       <c r="A754" s="2">
         <v>496683</v>
       </c>
@@ -71471,7 +71474,7 @@
       </c>
       <c r="AT754" s="4"/>
     </row>
-    <row r="755" spans="1:46" ht="30" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:46" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A755" s="2">
         <v>496685</v>
       </c>
@@ -71537,7 +71540,7 @@
         <v>5472000</v>
       </c>
     </row>
-    <row r="756" spans="1:46" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:46" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A756" s="2">
         <v>498891</v>
       </c>
